--- a/doc/图.xlsx
+++ b/doc/图.xlsx
@@ -1,91 +1,169 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\homeWork\Graduation\Graduation-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437E1ECE-EBB4-46DD-B83C-857BBC17C144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="4395" windowWidth="23085" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="29400" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>行数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows原程序用时（ms）</t>
+  </si>
+  <si>
+    <t>Windows新程序用时（ms）</t>
+  </si>
+  <si>
+    <t>Windows加速比</t>
+  </si>
+  <si>
+    <t>仅编译时间</t>
+  </si>
+  <si>
+    <t>编译加速比</t>
+  </si>
+  <si>
+    <t>处理1 +53ms</t>
+  </si>
+  <si>
+    <t>处理1 加速比</t>
+  </si>
+  <si>
+    <t>编译时间占比</t>
+  </si>
+  <si>
+    <t>MacOS原程序用时（ms）</t>
+  </si>
+  <si>
+    <t>MacOS新程序用时（ms）</t>
+  </si>
+  <si>
+    <t>Mac加速比</t>
+  </si>
+  <si>
+    <t>处理1</t>
+  </si>
+  <si>
+    <t>加速比</t>
   </si>
   <si>
     <t>1.circom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方最简用例</t>
   </si>
   <si>
     <t>2.circom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含参数模版</t>
   </si>
   <si>
     <t>3.circom</t>
   </si>
   <si>
+    <t>if-else与if语句</t>
+  </si>
+  <si>
     <t>4.circom</t>
   </si>
   <si>
+    <t>变量声明与赋值</t>
+  </si>
+  <si>
     <t>5.circom</t>
   </si>
   <si>
+    <t>多个模版</t>
+  </si>
+  <si>
     <t>6.circom</t>
   </si>
   <si>
+    <t>while循环</t>
+  </si>
+  <si>
     <t>7.circom</t>
   </si>
   <si>
+    <t>for循环</t>
+  </si>
+  <si>
     <t>8.circom</t>
   </si>
   <si>
+    <t>模版调用</t>
+  </si>
+  <si>
     <t>9.circom</t>
   </si>
   <si>
+    <t>函数与模版混合与调用</t>
+  </si>
+  <si>
     <t>10.circom</t>
   </si>
   <si>
+    <t>标识符命名与中间信号</t>
+  </si>
+  <si>
     <t>11.circom</t>
   </si>
   <si>
+    <t>circomlib</t>
+  </si>
+  <si>
     <t>12.circom</t>
   </si>
   <si>
     <t>13.circom</t>
   </si>
   <si>
+    <t>多重if嵌套</t>
+  </si>
+  <si>
     <t>14.circom</t>
   </si>
   <si>
+    <t>多重while嵌套</t>
+  </si>
+  <si>
     <t>15.circom</t>
   </si>
   <si>
+    <t>多重控制流嵌套</t>
+  </si>
+  <si>
     <t>16.circom</t>
   </si>
   <si>
@@ -129,145 +207,383 @@
   </si>
   <si>
     <t>30.circom</t>
-  </si>
-  <si>
-    <t>Windows原程序用时（ms）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windows新程序用时（ms）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windows加速比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MacOS原程序用时（ms）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MacOS新程序用时（ms）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mac加速比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官方最简用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含参数模版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if-else与if语句</t>
-  </si>
-  <si>
-    <t>变量声明与赋值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多个模版</t>
-  </si>
-  <si>
-    <t>while循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>for循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模版调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数与模版混合与调用</t>
-  </si>
-  <si>
-    <t>标识符命名与中间信号</t>
-  </si>
-  <si>
-    <t>多重if嵌套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多重while嵌套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多重控制流嵌套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>circomlib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅编译时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编译加速比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编译时间占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理1 +53ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理1 加速比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
+      <sz val="9.8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -275,30 +591,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -347,7 +949,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -382,7 +984,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -556,39 +1158,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:O35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B5:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="26.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
-    <col min="9" max="12" width="15.125" style="3" customWidth="1"/>
-    <col min="13" max="14" width="24.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="5" max="6" width="26.125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15.125" style="1" customWidth="1"/>
+    <col min="9" max="12" width="15.125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="24.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="11.7142857142857" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.92857142857143" style="1"/>
+    <col min="19" max="19" width="11.9285714285714" style="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:19">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,963 +1198,1418 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>55</v>
+        <v>6</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:19">
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
-        <v>16.806999999999999</v>
+        <v>16.807</v>
       </c>
       <c r="F6" s="1">
-        <v>68.771199999999993</v>
-      </c>
-      <c r="G6" s="3">
+        <v>68.7712</v>
+      </c>
+      <c r="G6" s="2">
         <f>E6/F6</f>
-        <v>0.24439009352752317</v>
+        <v>0.244390093527523</v>
       </c>
       <c r="H6" s="4">
-        <v>2.9958999999999998</v>
-      </c>
-      <c r="I6" s="3">
+        <v>2.9959</v>
+      </c>
+      <c r="I6" s="2">
         <f>E6/H6</f>
-        <v>5.6100003337895119</v>
+        <v>5.61000033378951</v>
       </c>
       <c r="J6" s="4">
         <f>H6+53</f>
-        <v>55.995899999999999</v>
-      </c>
-      <c r="K6" s="3">
+        <v>55.9959</v>
+      </c>
+      <c r="K6" s="2">
         <f>E6/J6</f>
-        <v>0.30014697504638732</v>
-      </c>
-      <c r="L6" s="3">
+        <v>0.300146975046387</v>
+      </c>
+      <c r="L6" s="2">
         <f>H6/F6</f>
-        <v>4.3563293936996886E-2</v>
-      </c>
-      <c r="O6" s="1" t="e">
-        <f>M6/N6</f>
-        <v>#DIV/0!</v>
+        <v>0.0435632939369969</v>
+      </c>
+      <c r="M6" s="1">
+        <v>32.699583</v>
+      </c>
+      <c r="N6" s="1">
+        <v>72.64475</v>
+      </c>
+      <c r="O6" s="2">
+        <f>M6/P6</f>
+        <v>34.581398988772</v>
+      </c>
+      <c r="P6" s="1">
+        <f>945.583/1000</f>
+        <v>0.945583</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>M6/P6</f>
+        <v>34.581398988772</v>
+      </c>
+      <c r="R6" s="1">
+        <f>P6+53</f>
+        <v>53.945583</v>
+      </c>
+      <c r="S6" s="2">
+        <f>M6/R6</f>
+        <v>0.606158672898206</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:19">
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1">
         <v>21.31</v>
       </c>
       <c r="F7" s="1">
-        <v>69.298299999999998</v>
-      </c>
-      <c r="G7" s="3">
+        <v>69.2983</v>
+      </c>
+      <c r="G7" s="2">
         <f t="shared" ref="G7:G35" si="0">E7/F7</f>
-        <v>0.3075111510671979</v>
+        <v>0.307511151067198</v>
       </c>
       <c r="H7" s="4">
-        <v>2.9222000000000001</v>
-      </c>
-      <c r="I7" s="3">
+        <v>2.9222</v>
+      </c>
+      <c r="I7" s="2">
         <f t="shared" ref="I7:I35" si="1">E7/H7</f>
-        <v>7.2924508931626848</v>
+        <v>7.29245089316268</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" ref="J7:J35" si="2">H7+53</f>
-        <v>55.922200000000004</v>
-      </c>
-      <c r="K7" s="3">
+        <v>55.9222</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" ref="K7:K35" si="3">E7/J7</f>
-        <v>0.38106512261677827</v>
-      </c>
-      <c r="L7" s="3">
+        <v>0.381065122616778</v>
+      </c>
+      <c r="L7" s="2">
         <f t="shared" ref="L7:L35" si="4">H7/F7</f>
-        <v>4.2168422601997456E-2</v>
-      </c>
-      <c r="O7" s="1" t="e">
+        <v>0.0421684226019975</v>
+      </c>
+      <c r="M7" s="1">
+        <v>36.86425</v>
+      </c>
+      <c r="N7" s="1">
+        <v>85.329542</v>
+      </c>
+      <c r="O7" s="2">
         <f t="shared" ref="O7:O35" si="5">M7/N7</f>
-        <v>#DIV/0!</v>
+        <v>0.432022124295475</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1.193792</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" ref="Q7:Q35" si="6">M7/P7</f>
+        <v>30.8799606631641</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" ref="R7:R35" si="7">P7+53</f>
+        <v>54.193792</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" ref="S7:S35" si="8">M7/R7</f>
+        <v>0.68023012672743</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:19">
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E8" s="1">
-        <v>52.362400000000001</v>
+        <v>52.3624</v>
       </c>
       <c r="F8" s="1">
-        <v>75.443399999999997</v>
-      </c>
-      <c r="G8" s="3">
+        <v>75.4434</v>
+      </c>
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>0.69406203856135862</v>
+        <v>0.694062038561359</v>
       </c>
       <c r="H8" s="4">
-        <v>5.8583999999999996</v>
-      </c>
-      <c r="I8" s="3">
+        <v>5.8584</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" si="1"/>
-        <v>8.9380035504574629</v>
+        <v>8.93800355045746</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="2"/>
-        <v>58.858400000000003</v>
-      </c>
-      <c r="K8" s="3">
+        <v>58.8584</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="3"/>
-        <v>0.88963342530547884</v>
-      </c>
-      <c r="L8" s="3">
+        <v>0.889633425305479</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="4"/>
-        <v>7.7652915960839508E-2</v>
-      </c>
-      <c r="O8" s="1" t="e">
+        <v>0.0776529159608395</v>
+      </c>
+      <c r="M8" s="1">
+        <v>38.602292</v>
+      </c>
+      <c r="N8" s="1">
+        <v>88.579583</v>
+      </c>
+      <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.435792207330667</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2.605167</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="6"/>
+        <v>14.8175882774502</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="7"/>
+        <v>55.605167</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="8"/>
+        <v>0.694221312202875</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:19">
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1">
-        <v>43.344700000000003</v>
+        <v>43.3447</v>
       </c>
       <c r="F9" s="1">
-        <v>69.858900000000006</v>
-      </c>
-      <c r="G9" s="3">
+        <v>69.8589</v>
+      </c>
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>0.62046067143914374</v>
+        <v>0.620460671439144</v>
       </c>
       <c r="H9" s="4">
-        <v>3.9967999999999999</v>
-      </c>
-      <c r="I9" s="3">
+        <v>3.9968</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="1"/>
-        <v>10.844850880704564</v>
+        <v>10.8448508807046</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="2"/>
         <v>56.9968</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <f t="shared" si="3"/>
-        <v>0.76047602672430736</v>
-      </c>
-      <c r="L9" s="3">
+        <v>0.760476026724307</v>
+      </c>
+      <c r="L9" s="2">
         <f t="shared" si="4"/>
-        <v>5.7212466843881017E-2</v>
-      </c>
-      <c r="O9" s="1" t="e">
+        <v>0.057212466843881</v>
+      </c>
+      <c r="M9" s="1">
+        <v>28.952791</v>
+      </c>
+      <c r="N9" s="1">
+        <v>79.676709</v>
+      </c>
+      <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.363378349374345</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1.642125</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="6"/>
+        <v>17.6312954251351</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="7"/>
+        <v>54.642125</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="8"/>
+        <v>0.529862098152296</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:19">
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1">
-        <v>42.195599999999999</v>
+        <v>42.1956</v>
       </c>
       <c r="F10" s="1">
-        <v>73.791200000000003</v>
-      </c>
-      <c r="G10" s="3">
+        <v>73.7912</v>
+      </c>
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>0.5718242825702794</v>
+        <v>0.571824282570279</v>
       </c>
       <c r="H10" s="4">
-        <v>4.9981999999999998</v>
-      </c>
-      <c r="I10" s="3">
+        <v>4.9982</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" si="1"/>
-        <v>8.4421591773038287</v>
+        <v>8.44215917730383</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="2"/>
-        <v>57.998199999999997</v>
-      </c>
-      <c r="K10" s="3">
+        <v>57.9982</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="3"/>
-        <v>0.72753292343555487</v>
-      </c>
-      <c r="L10" s="3">
+        <v>0.727532923435555</v>
+      </c>
+      <c r="L10" s="2">
         <f t="shared" si="4"/>
-        <v>6.7734363989201962E-2</v>
-      </c>
-      <c r="O10" s="1" t="e">
+        <v>0.067734363989202</v>
+      </c>
+      <c r="M10" s="1">
+        <v>28.332125</v>
+      </c>
+      <c r="N10" s="1">
+        <v>89.596666</v>
+      </c>
+      <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.316218518666755</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2.125041</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="6"/>
+        <v>13.3325074669148</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="7"/>
+        <v>55.125041</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="8"/>
+        <v>0.513961068981336</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:19">
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1">
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1">
-        <v>47.985599999999998</v>
+        <v>47.9856</v>
       </c>
       <c r="F11" s="1">
-        <v>83.870999999999995</v>
-      </c>
-      <c r="G11" s="3">
+        <v>83.871</v>
+      </c>
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>0.57213577994777698</v>
+        <v>0.572135779947777</v>
       </c>
       <c r="H11" s="4">
-        <v>15.320399999999999</v>
-      </c>
-      <c r="I11" s="3">
+        <v>15.3204</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="1"/>
-        <v>3.1321375421007285</v>
+        <v>3.13213754210073</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="2"/>
-        <v>68.320400000000006</v>
-      </c>
-      <c r="K11" s="3">
+        <v>68.3204</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="3"/>
-        <v>0.70236122739328211</v>
-      </c>
-      <c r="L11" s="3">
+        <v>0.702361227393282</v>
+      </c>
+      <c r="L11" s="2">
         <f t="shared" si="4"/>
-        <v>0.18266623743606253</v>
-      </c>
-      <c r="O11" s="1" t="e">
+        <v>0.182666237436063</v>
+      </c>
+      <c r="M11" s="1">
+        <v>33.04675</v>
+      </c>
+      <c r="N11" s="1">
+        <v>86.248</v>
+      </c>
+      <c r="O11" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.383159609498191</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2.945</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="6"/>
+        <v>11.2213073005093</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="7"/>
+        <v>55.945</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="8"/>
+        <v>0.590700688175887</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:19">
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1">
-        <v>56.560600000000001</v>
+        <v>56.5606</v>
       </c>
       <c r="F12" s="1">
-        <v>72.805899999999994</v>
-      </c>
-      <c r="G12" s="3">
+        <v>72.8059</v>
+      </c>
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>0.77686835819624511</v>
+        <v>0.776868358196245</v>
       </c>
       <c r="H12" s="4">
         <v>5.7195</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <f t="shared" si="1"/>
-        <v>9.8890812133927799</v>
+        <v>9.88908121339278</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="2"/>
-        <v>58.719499999999996</v>
-      </c>
-      <c r="K12" s="3">
+        <v>58.7195</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="3"/>
-        <v>0.96323367876088872</v>
-      </c>
-      <c r="L12" s="3">
+        <v>0.963233678760889</v>
+      </c>
+      <c r="L12" s="2">
         <f t="shared" si="4"/>
-        <v>7.855819377275744E-2</v>
-      </c>
-      <c r="O12" s="1" t="e">
+        <v>0.0785581937727574</v>
+      </c>
+      <c r="M12" s="1">
+        <v>45.552042</v>
+      </c>
+      <c r="N12" s="1">
+        <v>83.810083</v>
+      </c>
+      <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.54351505653562</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2.462458</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="6"/>
+        <v>18.4986066767433</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="7"/>
+        <v>55.462458</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="8"/>
+        <v>0.821313076315514</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:19">
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1">
-        <v>34.183500000000002</v>
+        <v>34.1835</v>
       </c>
       <c r="F13" s="1">
-        <v>82.372799999999998</v>
-      </c>
-      <c r="G13" s="3">
+        <v>82.3728</v>
+      </c>
+      <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>0.4149852864052212</v>
+        <v>0.414985286405221</v>
       </c>
       <c r="H13" s="4">
         <v>13.4815</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <f t="shared" si="1"/>
-        <v>2.5355858027667546</v>
+        <v>2.53558580276675</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="2"/>
-        <v>66.481499999999997</v>
-      </c>
-      <c r="K13" s="3">
+        <v>66.4815</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="3"/>
-        <v>0.51418063671848568</v>
-      </c>
-      <c r="L13" s="3">
+        <v>0.514180636718486</v>
+      </c>
+      <c r="L13" s="2">
         <f t="shared" si="4"/>
-        <v>0.16366446205543578</v>
-      </c>
-      <c r="O13" s="1" t="e">
+        <v>0.163664462055436</v>
+      </c>
+      <c r="M13" s="1">
+        <v>19.089459</v>
+      </c>
+      <c r="N13" s="1">
+        <v>81.966875</v>
+      </c>
+      <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.232892360480987</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1.440625</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="6"/>
+        <v>13.250817527115</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="7"/>
+        <v>54.440625</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="8"/>
+        <v>0.35064731530911</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:19">
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
         <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1">
-        <v>40.879600000000003</v>
+        <v>40.8796</v>
       </c>
       <c r="F14" s="1">
-        <v>75.117599999999996</v>
-      </c>
-      <c r="G14" s="3">
+        <v>75.1176</v>
+      </c>
+      <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>0.54420801516555384</v>
+        <v>0.544208015165554</v>
       </c>
       <c r="H14" s="4">
-        <v>5.2937000000000003</v>
-      </c>
-      <c r="I14" s="3">
+        <v>5.2937</v>
+      </c>
+      <c r="I14" s="2">
         <f t="shared" si="1"/>
-        <v>7.7223114267903359</v>
+        <v>7.72231142679034</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="2"/>
-        <v>58.293700000000001</v>
-      </c>
-      <c r="K14" s="3">
+        <v>58.2937</v>
+      </c>
+      <c r="K14" s="2">
         <f t="shared" si="3"/>
-        <v>0.70126960546336914</v>
-      </c>
-      <c r="L14" s="3">
+        <v>0.701269605463369</v>
+      </c>
+      <c r="L14" s="2">
         <f t="shared" si="4"/>
-        <v>7.0472166309892767E-2</v>
-      </c>
-      <c r="O14" s="1" t="e">
+        <v>0.0704721663098928</v>
+      </c>
+      <c r="M14" s="1">
+        <v>27.140666</v>
+      </c>
+      <c r="N14" s="1">
+        <v>86.392083</v>
+      </c>
+      <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.314156865508151</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1.975833</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="6"/>
+        <v>13.7363157716264</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="7"/>
+        <v>54.975833</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="8"/>
+        <v>0.493683579110116</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:19">
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1">
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1">
-        <v>18.436599999999999</v>
+        <v>18.4366</v>
       </c>
       <c r="F15" s="1">
-        <v>77.688500000000005</v>
-      </c>
-      <c r="G15" s="3">
+        <v>77.6885</v>
+      </c>
+      <c r="G15" s="2">
         <f t="shared" si="0"/>
-        <v>0.23731440303262386</v>
+        <v>0.237314403032624</v>
       </c>
       <c r="H15" s="4">
-        <v>2.3694999999999999</v>
-      </c>
-      <c r="I15" s="3">
+        <v>2.3695</v>
+      </c>
+      <c r="I15" s="2">
         <f t="shared" si="1"/>
         <v>7.7807976366322</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="2"/>
-        <v>55.369500000000002</v>
-      </c>
-      <c r="K15" s="3">
+        <v>55.3695</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="3"/>
-        <v>0.33297392969053358</v>
-      </c>
-      <c r="L15" s="3">
+        <v>0.332973929690534</v>
+      </c>
+      <c r="L15" s="2">
         <f t="shared" si="4"/>
-        <v>3.0500009653938481E-2</v>
-      </c>
-      <c r="O15" s="1" t="e">
+        <v>0.0305000096539385</v>
+      </c>
+      <c r="M15" s="1">
+        <v>14.431875</v>
+      </c>
+      <c r="N15" s="1">
+        <v>84.555916</v>
+      </c>
+      <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.170678477423153</v>
+      </c>
+      <c r="P15" s="1">
+        <f>0.001*909.958</f>
+        <v>0.909958</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="6"/>
+        <v>15.8599352937169</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="7"/>
+        <v>53.909958</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="8"/>
+        <v>0.267703324866252</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:19">
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1">
         <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1">
-        <v>57.097000000000001</v>
+        <v>57.097</v>
       </c>
       <c r="F16" s="1">
-        <v>79.863500000000002</v>
-      </c>
-      <c r="G16" s="3">
+        <v>79.8635</v>
+      </c>
+      <c r="G16" s="2">
         <f t="shared" si="0"/>
-        <v>0.71493235332786564</v>
+        <v>0.714932353327866</v>
       </c>
       <c r="H16" s="4">
-        <v>6.3958000000000004</v>
-      </c>
-      <c r="I16" s="3">
+        <v>6.3958</v>
+      </c>
+      <c r="I16" s="2">
         <f t="shared" si="1"/>
-        <v>8.927264767503674</v>
+        <v>8.92726476750367</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="2"/>
-        <v>59.395800000000001</v>
-      </c>
-      <c r="K16" s="3">
+        <v>59.3958</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="3"/>
-        <v>0.96129692671872424</v>
-      </c>
-      <c r="L16" s="3">
+        <v>0.961296926718724</v>
+      </c>
+      <c r="L16" s="2">
         <f t="shared" si="4"/>
-        <v>8.0084143569966251E-2</v>
-      </c>
-      <c r="O16" s="1" t="e">
+        <v>0.0800841435699663</v>
+      </c>
+      <c r="M16" s="1">
+        <v>42.190417</v>
+      </c>
+      <c r="N16" s="1">
+        <v>89.4905</v>
+      </c>
+      <c r="O16" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.471451349584593</v>
+      </c>
+      <c r="P16" s="1">
+        <v>3.612666</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="6"/>
+        <v>11.6784715221391</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="7"/>
+        <v>56.612666</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="8"/>
+        <v>0.745246955866731</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:19">
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1">
         <v>98</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1">
-        <v>266.95870000000002</v>
+        <v>266.9587</v>
       </c>
       <c r="F17" s="1">
         <v>120.2714</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <f t="shared" si="0"/>
-        <v>2.2196357571292928</v>
+        <v>2.21963575712929</v>
       </c>
       <c r="H17" s="4">
-        <v>30.837599999999998</v>
-      </c>
-      <c r="I17" s="3">
+        <v>30.8376</v>
+      </c>
+      <c r="I17" s="2">
         <f t="shared" si="1"/>
-        <v>8.6569220691623219</v>
+        <v>8.65692206916232</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="2"/>
-        <v>83.837599999999995</v>
-      </c>
-      <c r="K17" s="3">
+        <v>83.8376</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="3"/>
-        <v>3.1842359514108232</v>
-      </c>
-      <c r="L17" s="3">
+        <v>3.18423595141082</v>
+      </c>
+      <c r="L17" s="2">
         <f t="shared" si="4"/>
-        <v>0.25640010842145344</v>
-      </c>
-      <c r="O17" s="1" t="e">
+        <v>0.256400108421453</v>
+      </c>
+      <c r="M17" s="1">
+        <v>249.533541</v>
+      </c>
+      <c r="N17" s="1">
+        <v>118.101583</v>
+      </c>
+      <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.11287211112149</v>
+      </c>
+      <c r="P17" s="1">
+        <v>14.525458</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="6"/>
+        <v>17.1790480548014</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="7"/>
+        <v>67.525458</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="8"/>
+        <v>3.69539945956383</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:19">
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1">
         <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1">
-        <v>74.739599999999996</v>
+        <v>74.7396</v>
       </c>
       <c r="F18" s="1">
-        <v>84.065799999999996</v>
-      </c>
-      <c r="G18" s="3">
+        <v>84.0658</v>
+      </c>
+      <c r="G18" s="2">
         <f t="shared" si="0"/>
-        <v>0.8890607119661027</v>
+        <v>0.889060711966103</v>
       </c>
       <c r="H18" s="4">
-        <v>8.9136000000000006</v>
-      </c>
-      <c r="I18" s="3">
+        <v>8.9136</v>
+      </c>
+      <c r="I18" s="2">
         <f t="shared" si="1"/>
-        <v>8.3848949919224545</v>
+        <v>8.38489499192245</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="2"/>
-        <v>61.913600000000002</v>
-      </c>
-      <c r="K18" s="3">
+        <v>61.9136</v>
+      </c>
+      <c r="K18" s="2">
         <f t="shared" si="3"/>
-        <v>1.2071596547446763</v>
-      </c>
-      <c r="L18" s="3">
+        <v>1.20715965474468</v>
+      </c>
+      <c r="L18" s="2">
         <f t="shared" si="4"/>
-        <v>0.10603122791908244</v>
-      </c>
-      <c r="O18" s="1" t="e">
+        <v>0.106031227919082</v>
+      </c>
+      <c r="M18" s="1">
+        <v>59.89975</v>
+      </c>
+      <c r="N18" s="1">
+        <v>96.284</v>
+      </c>
+      <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.622115304723526</v>
+      </c>
+      <c r="P18" s="1">
+        <v>4.295084</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="6"/>
+        <v>13.946118399547</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="7"/>
+        <v>57.295084</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="8"/>
+        <v>1.04546054946005</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:19">
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1">
         <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1">
-        <v>98.320999999999998</v>
+        <v>98.321</v>
       </c>
       <c r="F19" s="1">
-        <v>86.370999999999995</v>
-      </c>
-      <c r="G19" s="3">
+        <v>86.371</v>
+      </c>
+      <c r="G19" s="2">
         <f t="shared" si="0"/>
-        <v>1.1383566243299257</v>
+        <v>1.13835662432993</v>
       </c>
       <c r="H19" s="4">
         <v>12.0853</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <f t="shared" si="1"/>
-        <v>8.1355862080378643</v>
+        <v>8.13558620803786</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="2"/>
-        <v>65.085300000000004</v>
-      </c>
-      <c r="K19" s="3">
+        <v>65.0853</v>
+      </c>
+      <c r="K19" s="2">
         <f t="shared" si="3"/>
-        <v>1.510648333801949</v>
-      </c>
-      <c r="L19" s="3">
+        <v>1.51064833380195</v>
+      </c>
+      <c r="L19" s="2">
         <f t="shared" si="4"/>
-        <v>0.1399231223443054</v>
-      </c>
-      <c r="O19" s="1" t="e">
+        <v>0.139923122344305</v>
+      </c>
+      <c r="M19" s="1">
+        <v>82.3225</v>
+      </c>
+      <c r="N19" s="1">
+        <v>97.96925</v>
+      </c>
+      <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.84028917236786</v>
+      </c>
+      <c r="P19" s="1">
+        <v>5.775042</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="6"/>
+        <v>14.2548746831625</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="7"/>
+        <v>58.775042</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="8"/>
+        <v>1.40063702549119</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:19">
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1">
         <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1">
-        <v>188.42179999999999</v>
+        <v>188.4218</v>
       </c>
       <c r="F20" s="1">
-        <v>89.133300000000006</v>
-      </c>
-      <c r="G20" s="3">
+        <v>89.1333</v>
+      </c>
+      <c r="G20" s="2">
         <f t="shared" si="0"/>
-        <v>2.1139327277235331</v>
+        <v>2.11393272772353</v>
       </c>
       <c r="H20" s="4">
-        <v>15.357900000000001</v>
-      </c>
-      <c r="I20" s="3">
+        <v>15.3579</v>
+      </c>
+      <c r="I20" s="2">
         <f t="shared" si="1"/>
-        <v>12.268721635119384</v>
+        <v>12.2687216351194</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="2"/>
-        <v>68.357900000000001</v>
-      </c>
-      <c r="K20" s="3">
+        <v>68.3579</v>
+      </c>
+      <c r="K20" s="2">
         <f t="shared" si="3"/>
-        <v>2.7564012352632248</v>
-      </c>
-      <c r="L20" s="3">
+        <v>2.75640123526322</v>
+      </c>
+      <c r="L20" s="2">
         <f t="shared" si="4"/>
-        <v>0.17230260744300951</v>
-      </c>
-      <c r="O20" s="1" t="e">
+        <v>0.17230260744301</v>
+      </c>
+      <c r="M20" s="1">
+        <v>164.143</v>
+      </c>
+      <c r="N20" s="1">
+        <v>98.48525</v>
+      </c>
+      <c r="O20" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.66667597432103</v>
+      </c>
+      <c r="P20" s="1">
+        <v>7.603708</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" si="6"/>
+        <v>21.5872308615744</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="7"/>
+        <v>60.603708</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" si="8"/>
+        <v>2.70846463718029</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:19">
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1">
         <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1">
-        <v>88.171499999999995</v>
+        <v>88.1715</v>
       </c>
       <c r="F21" s="1">
-        <v>85.796499999999995</v>
-      </c>
-      <c r="G21" s="3">
+        <v>85.7965</v>
+      </c>
+      <c r="G21" s="2">
         <f t="shared" si="0"/>
-        <v>1.0276817818908697</v>
+        <v>1.02768178189087</v>
       </c>
       <c r="H21" s="4">
         <v>10.6876</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <f t="shared" si="1"/>
-        <v>8.2498877203488146</v>
+        <v>8.24988772034881</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="2"/>
-        <v>63.687600000000003</v>
-      </c>
-      <c r="K21" s="3">
+        <v>63.6876</v>
+      </c>
+      <c r="K21" s="2">
         <f t="shared" si="3"/>
-        <v>1.3844374729146645</v>
-      </c>
-      <c r="L21" s="3">
+        <v>1.38443747291466</v>
+      </c>
+      <c r="L21" s="2">
         <f t="shared" si="4"/>
-        <v>0.12456918405762474</v>
-      </c>
-      <c r="O21" s="1" t="e">
+        <v>0.124569184057625</v>
+      </c>
+      <c r="M21" s="1">
+        <v>77.7905</v>
+      </c>
+      <c r="N21" s="1">
+        <v>95.938292</v>
+      </c>
+      <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.810838908826936</v>
+      </c>
+      <c r="P21" s="1">
+        <v>4.76425</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" si="6"/>
+        <v>16.3279634779871</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="7"/>
+        <v>57.76425</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" si="8"/>
+        <v>1.34668934505339</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:19">
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1">
         <v>141</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1">
-        <v>93.842200000000005</v>
+        <v>93.8422</v>
       </c>
       <c r="F22" s="1">
-        <v>94.213499999999996</v>
-      </c>
-      <c r="G22" s="3">
+        <v>94.2135</v>
+      </c>
+      <c r="G22" s="2">
         <f t="shared" si="0"/>
-        <v>0.99605895121187527</v>
+        <v>0.996058951211875</v>
       </c>
       <c r="H22" s="4">
         <v>13.855</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <f t="shared" si="1"/>
-        <v>6.7731649224106825</v>
+        <v>6.77316492241068</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="2"/>
-        <v>66.855000000000004</v>
-      </c>
-      <c r="K22" s="3">
+        <v>66.855</v>
+      </c>
+      <c r="K22" s="2">
         <f t="shared" si="3"/>
-        <v>1.4036676389200509</v>
-      </c>
-      <c r="L22" s="3">
+        <v>1.40366763892005</v>
+      </c>
+      <c r="L22" s="2">
         <f t="shared" si="4"/>
-        <v>0.14705960398456697</v>
-      </c>
-      <c r="O22" s="1" t="e">
+        <v>0.147059603984567</v>
+      </c>
+      <c r="M22" s="1">
+        <v>78.622333</v>
+      </c>
+      <c r="N22" s="1">
+        <v>100.78525</v>
+      </c>
+      <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.780097613490069</v>
+      </c>
+      <c r="P22" s="1">
+        <v>6.1335</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="6"/>
+        <v>12.8185103122198</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="7"/>
+        <v>59.1335</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" si="8"/>
+        <v>1.32957347358097</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:19">
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1">
         <v>142</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E23" s="1">
-        <v>90.811099999999996</v>
+        <v>90.8111</v>
       </c>
       <c r="F23" s="1">
-        <v>97.427599999999998</v>
-      </c>
-      <c r="G23" s="3">
+        <v>97.4276</v>
+      </c>
+      <c r="G23" s="2">
         <f t="shared" si="0"/>
-        <v>0.93208803254929817</v>
+        <v>0.932088032549298</v>
       </c>
       <c r="H23" s="4">
         <v>16.2486</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <f t="shared" si="1"/>
-        <v>5.5888568861317278</v>
+        <v>5.58885688613173</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="2"/>
-        <v>69.248599999999996</v>
-      </c>
-      <c r="K23" s="3">
+        <v>69.2486</v>
+      </c>
+      <c r="K23" s="2">
         <f t="shared" si="3"/>
-        <v>1.3113781361644856</v>
-      </c>
-      <c r="L23" s="3">
+        <v>1.31137813616449</v>
+      </c>
+      <c r="L23" s="2">
         <f t="shared" si="4"/>
-        <v>0.16677614967421964</v>
-      </c>
-      <c r="O23" s="1" t="e">
+        <v>0.16677614967422</v>
+      </c>
+      <c r="M23" s="1">
+        <v>88.489917</v>
+      </c>
+      <c r="N23" s="1">
+        <v>102.246125</v>
+      </c>
+      <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.865459859725735</v>
+      </c>
+      <c r="P23" s="1">
+        <v>7.020209</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" si="6"/>
+        <v>12.6050260042116</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="7"/>
+        <v>60.020209</v>
+      </c>
+      <c r="S23" s="2">
+        <f t="shared" si="8"/>
+        <v>1.47433536927537</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:19">
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1">
         <v>153</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1">
-        <v>137.24860000000001</v>
+        <v>137.2486</v>
       </c>
       <c r="F24" s="1">
-        <v>99.785600000000002</v>
-      </c>
-      <c r="G24" s="3">
+        <v>99.7856</v>
+      </c>
+      <c r="G24" s="2">
         <f t="shared" si="0"/>
-        <v>1.3754349324952699</v>
+        <v>1.37543493249527</v>
       </c>
       <c r="H24" s="4">
-        <v>19.258500000000002</v>
-      </c>
-      <c r="I24" s="3">
+        <v>19.2585</v>
+      </c>
+      <c r="I24" s="2">
         <f t="shared" si="1"/>
-        <v>7.1266505698782359</v>
+        <v>7.12665056987824</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="2"/>
-        <v>72.258499999999998</v>
-      </c>
-      <c r="K24" s="3">
+        <v>72.2585</v>
+      </c>
+      <c r="K24" s="2">
         <f t="shared" si="3"/>
-        <v>1.8994111419417787</v>
-      </c>
-      <c r="L24" s="3">
+        <v>1.89941114194178</v>
+      </c>
+      <c r="L24" s="2">
         <f t="shared" si="4"/>
-        <v>0.19299878940448323</v>
-      </c>
-      <c r="O24" s="1" t="e">
+        <v>0.192998789404483</v>
+      </c>
+      <c r="M24" s="1">
+        <v>119.666959</v>
+      </c>
+      <c r="N24" s="1">
+        <v>106.655667</v>
+      </c>
+      <c r="O24" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.12199344269255</v>
+      </c>
+      <c r="P24" s="1">
+        <v>8.683959</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="6"/>
+        <v>13.7802307680172</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="7"/>
+        <v>61.683959</v>
+      </c>
+      <c r="S24" s="2">
+        <f t="shared" si="8"/>
+        <v>1.94000127326458</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:19">
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1">
         <v>94</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E25" s="1">
-        <v>137.88319999999999</v>
+        <v>137.8832</v>
       </c>
       <c r="F25" s="1">
-        <v>101.44750000000001</v>
-      </c>
-      <c r="G25" s="3">
+        <v>101.4475</v>
+      </c>
+      <c r="G25" s="2">
         <f t="shared" si="0"/>
-        <v>1.3591581852682419</v>
+        <v>1.35915818526824</v>
       </c>
       <c r="H25" s="4">
-        <v>18.440000000000001</v>
-      </c>
-      <c r="I25" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="I25" s="2">
         <f t="shared" si="1"/>
-        <v>7.4773969631236428</v>
+        <v>7.47739696312364</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="2"/>
         <v>71.44</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <f t="shared" si="3"/>
-        <v>1.9300559910414332</v>
-      </c>
-      <c r="L25" s="3">
+        <v>1.93005599104143</v>
+      </c>
+      <c r="L25" s="2">
         <f t="shared" si="4"/>
-        <v>0.18176889524138101</v>
-      </c>
-      <c r="O25" s="1" t="e">
+        <v>0.181768895241381</v>
+      </c>
+      <c r="M25" s="1">
+        <v>123.389833</v>
+      </c>
+      <c r="N25" s="1">
+        <v>106.755917</v>
+      </c>
+      <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.15581259069696</v>
+      </c>
+      <c r="P25" s="1">
+        <v>8.953375</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="6"/>
+        <v>13.7813766317171</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="7"/>
+        <v>61.953375</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" si="8"/>
+        <v>1.99165635447625</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:19">
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1">
         <v>207</v>
       </c>
       <c r="E26" s="1">
-        <v>225.66640000000001</v>
+        <v>225.6664</v>
       </c>
       <c r="F26" s="1">
-        <v>145.46530000000001</v>
-      </c>
-      <c r="G26" s="3">
+        <v>145.4653</v>
+      </c>
+      <c r="G26" s="2">
         <f t="shared" si="0"/>
-        <v>1.551341797665835</v>
+        <v>1.55134179766584</v>
       </c>
       <c r="H26" s="4">
         <v>36.7196</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <f t="shared" si="1"/>
-        <v>6.1456660747938434</v>
+        <v>6.14566607479384</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="2"/>
         <v>89.7196</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <f t="shared" si="3"/>
-        <v>2.5152408169452385</v>
-      </c>
-      <c r="L26" s="3">
+        <v>2.51524081694524</v>
+      </c>
+      <c r="L26" s="2">
         <f t="shared" si="4"/>
-        <v>0.25242858606141805</v>
-      </c>
-      <c r="O26" s="1" t="e">
+        <v>0.252428586061418</v>
+      </c>
+      <c r="M26" s="1">
+        <v>210.4465</v>
+      </c>
+      <c r="N26" s="1">
+        <v>128.240167</v>
+      </c>
+      <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.64103420108615</v>
+      </c>
+      <c r="P26" s="1">
+        <v>17.348167</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="6"/>
+        <v>12.1307628638807</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="7"/>
+        <v>70.348167</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="8"/>
+        <v>2.99149940893272</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:19">
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1">
         <v>389</v>
@@ -1564,80 +2618,122 @@
         <v>406.0213</v>
       </c>
       <c r="F27" s="1">
-        <v>200.89570000000001</v>
-      </c>
-      <c r="G27" s="3">
+        <v>200.8957</v>
+      </c>
+      <c r="G27" s="2">
         <f t="shared" si="0"/>
-        <v>2.0210552042676873</v>
+        <v>2.02105520426769</v>
       </c>
       <c r="H27" s="4">
-        <v>72.420500000000004</v>
-      </c>
-      <c r="I27" s="3">
+        <v>72.4205</v>
+      </c>
+      <c r="I27" s="2">
         <f t="shared" si="1"/>
-        <v>5.6064415462472637</v>
+        <v>5.60644154624726</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="2"/>
         <v>125.4205</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <f t="shared" si="3"/>
-        <v>3.2372801894427146</v>
-      </c>
-      <c r="L27" s="3">
+        <v>3.23728018944271</v>
+      </c>
+      <c r="L27" s="2">
         <f t="shared" si="4"/>
-        <v>0.36048805424904568</v>
-      </c>
-      <c r="O27" s="1" t="e">
+        <v>0.360488054249046</v>
+      </c>
+      <c r="M27" s="1">
+        <v>395.904875</v>
+      </c>
+      <c r="N27" s="1">
+        <v>180.552334</v>
+      </c>
+      <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.1927430470104</v>
+      </c>
+      <c r="P27" s="1">
+        <v>35.126042</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="6"/>
+        <v>11.2709788082586</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="7"/>
+        <v>88.126042</v>
+      </c>
+      <c r="S27" s="2">
+        <f t="shared" si="8"/>
+        <v>4.49248446900634</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:19">
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1">
         <v>550</v>
       </c>
       <c r="E28" s="1">
-        <v>568.07169999999996</v>
+        <v>568.0717</v>
       </c>
       <c r="F28" s="1">
-        <v>276.36090000000002</v>
-      </c>
-      <c r="G28" s="3">
+        <v>276.3609</v>
+      </c>
+      <c r="G28" s="2">
         <f t="shared" si="0"/>
-        <v>2.0555429512640897</v>
+        <v>2.05554295126409</v>
       </c>
       <c r="H28" s="4">
         <v>110.7773</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <f t="shared" si="1"/>
-        <v>5.1280515051368827</v>
+        <v>5.12805150513688</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="2"/>
         <v>163.7773</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <f t="shared" si="3"/>
-        <v>3.4685618825075268</v>
-      </c>
-      <c r="L28" s="3">
+        <v>3.46856188250753</v>
+      </c>
+      <c r="L28" s="2">
         <f t="shared" si="4"/>
-        <v>0.40084288334565416</v>
-      </c>
-      <c r="O28" s="1" t="e">
+        <v>0.400842883345654</v>
+      </c>
+      <c r="M28" s="1">
+        <v>552.480875</v>
+      </c>
+      <c r="N28" s="1">
+        <v>223.477708</v>
+      </c>
+      <c r="O28" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.4721968018394</v>
+      </c>
+      <c r="P28" s="1">
+        <v>53.671083</v>
+      </c>
+      <c r="Q28" s="2">
+        <f t="shared" si="6"/>
+        <v>10.2938275905482</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="7"/>
+        <v>106.671083</v>
+      </c>
+      <c r="S28" s="2">
+        <f t="shared" si="8"/>
+        <v>5.17929376417787</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:19">
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1">
         <v>1096</v>
@@ -1647,206 +2743,315 @@
         <v>1146.914</v>
       </c>
       <c r="F29" s="1">
-        <v>514.37329999999997</v>
-      </c>
-      <c r="G29" s="3">
+        <v>514.3733</v>
+      </c>
+      <c r="G29" s="2">
         <f t="shared" si="0"/>
-        <v>2.2297308200095145</v>
+        <v>2.22973082000951</v>
       </c>
       <c r="H29" s="4">
         <v>248.3877</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <f t="shared" si="1"/>
-        <v>4.6174347602558417</v>
+        <v>4.61743476025584</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="2"/>
         <v>301.3877</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <f t="shared" si="3"/>
-        <v>3.8054439514286749</v>
-      </c>
-      <c r="L29" s="3">
+        <v>3.80544395142867</v>
+      </c>
+      <c r="L29" s="2">
         <f t="shared" si="4"/>
-        <v>0.4828938438289857</v>
-      </c>
-      <c r="O29" s="1" t="e">
+        <v>0.482893843828986</v>
+      </c>
+      <c r="M29" s="1">
+        <f>1000*1.118762709</f>
+        <v>1118.762709</v>
+      </c>
+      <c r="N29" s="1">
+        <v>393.292375</v>
+      </c>
+      <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.84460818494129</v>
+      </c>
+      <c r="P29" s="1">
+        <v>132.366708</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" si="6"/>
+        <v>8.45199465865692</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="7"/>
+        <v>185.366708</v>
+      </c>
+      <c r="S29" s="2">
+        <f t="shared" si="8"/>
+        <v>6.03540258696292</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:19">
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1">
         <v>1645</v>
       </c>
       <c r="E30" s="1">
         <f>1000*2.0534615</f>
-        <v>2053.4614999999999</v>
+        <v>2053.4615</v>
       </c>
       <c r="F30" s="1">
-        <v>961.71960000000001</v>
-      </c>
-      <c r="G30" s="3">
+        <v>961.7196</v>
+      </c>
+      <c r="G30" s="2">
         <f t="shared" si="0"/>
-        <v>2.1351977229121668</v>
+        <v>2.13519772291217</v>
       </c>
       <c r="H30" s="4">
-        <v>567.74220000000003</v>
-      </c>
-      <c r="I30" s="3">
+        <v>567.7422</v>
+      </c>
+      <c r="I30" s="2">
         <f t="shared" si="1"/>
-        <v>3.6168907296304553</v>
+        <v>3.61689072963046</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="2"/>
-        <v>620.74220000000003</v>
-      </c>
-      <c r="K30" s="3">
+        <v>620.7422</v>
+      </c>
+      <c r="K30" s="2">
         <f t="shared" si="3"/>
-        <v>3.3080745919964838</v>
-      </c>
-      <c r="L30" s="3">
+        <v>3.30807459199648</v>
+      </c>
+      <c r="L30" s="2">
         <f t="shared" si="4"/>
-        <v>0.59034067726185468</v>
-      </c>
-      <c r="O30" s="1" t="e">
+        <v>0.590340677261855</v>
+      </c>
+      <c r="M30" s="1">
+        <f>1000*2.035345458</f>
+        <v>2035.345458</v>
+      </c>
+      <c r="N30" s="1">
+        <v>724.847459</v>
+      </c>
+      <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.80796384498328</v>
+      </c>
+      <c r="P30" s="1">
+        <v>321.785625</v>
+      </c>
+      <c r="Q30" s="2">
+        <f t="shared" si="6"/>
+        <v>6.32515967113198</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="7"/>
+        <v>374.785625</v>
+      </c>
+      <c r="S30" s="2">
+        <f t="shared" si="8"/>
+        <v>5.43069243384135</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:19">
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C31" s="1">
         <v>1280</v>
       </c>
       <c r="E31" s="1">
         <f>1000*1.7090621</f>
-        <v>1709.0620999999999</v>
+        <v>1709.0621</v>
       </c>
       <c r="F31" s="1">
-        <v>778.32039999999995</v>
-      </c>
-      <c r="G31" s="3">
+        <v>778.3204</v>
+      </c>
+      <c r="G31" s="2">
         <f t="shared" si="0"/>
-        <v>2.1958336181346398</v>
+        <v>2.19583361813464</v>
       </c>
       <c r="H31" s="4">
-        <v>443.65969999999999</v>
-      </c>
-      <c r="I31" s="3">
+        <v>443.6597</v>
+      </c>
+      <c r="I31" s="2">
         <f t="shared" si="1"/>
-        <v>3.8521914431263418</v>
+        <v>3.85219144312634</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="2"/>
-        <v>496.65969999999999</v>
-      </c>
-      <c r="K31" s="3">
+        <v>496.6597</v>
+      </c>
+      <c r="K31" s="2">
         <f t="shared" si="3"/>
-        <v>3.4411128988319364</v>
-      </c>
-      <c r="L31" s="3">
+        <v>3.44111289883194</v>
+      </c>
+      <c r="L31" s="2">
         <f t="shared" si="4"/>
-        <v>0.57002193441158677</v>
-      </c>
-      <c r="O31" s="1" t="e">
+        <v>0.570021934411587</v>
+      </c>
+      <c r="M31" s="1">
+        <f>1000*1.656551125</f>
+        <v>1656.551125</v>
+      </c>
+      <c r="N31" s="1">
+        <v>589.756375</v>
+      </c>
+      <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.8088736217561</v>
+      </c>
+      <c r="P31" s="1">
+        <v>238.221708</v>
+      </c>
+      <c r="Q31" s="2">
+        <f t="shared" si="6"/>
+        <v>6.95382103884504</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="7"/>
+        <v>291.221708</v>
+      </c>
+      <c r="S31" s="2">
+        <f t="shared" si="8"/>
+        <v>5.68828174374968</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:19">
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1">
         <v>1994</v>
       </c>
       <c r="E32" s="1">
         <f>1000*1.3161689</f>
-        <v>1316.1689000000001</v>
+        <v>1316.1689</v>
       </c>
       <c r="F32" s="1">
         <v>597.7423</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <f t="shared" si="0"/>
-        <v>2.2019002168660311</v>
+        <v>2.20190021686603</v>
       </c>
       <c r="H32" s="4">
-        <v>322.82299999999998</v>
-      </c>
-      <c r="I32" s="3">
+        <v>322.823</v>
+      </c>
+      <c r="I32" s="2">
         <f t="shared" si="1"/>
         <v>4.07706049445052</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="2"/>
-        <v>375.82299999999998</v>
-      </c>
-      <c r="K32" s="3">
+        <v>375.823</v>
+      </c>
+      <c r="K32" s="2">
         <f t="shared" si="3"/>
-        <v>3.5020977960369648</v>
-      </c>
-      <c r="L32" s="3">
+        <v>3.50209779603696</v>
+      </c>
+      <c r="L32" s="2">
         <f t="shared" si="4"/>
-        <v>0.54007052872115624</v>
-      </c>
-      <c r="O32" s="1" t="e">
+        <v>0.540070528721156</v>
+      </c>
+      <c r="M32" s="1">
+        <f>1000*1.279313209</f>
+        <v>1279.313209</v>
+      </c>
+      <c r="N32" s="1">
+        <v>452.944875</v>
+      </c>
+      <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.82443467099611</v>
+      </c>
+      <c r="P32" s="1">
+        <v>165.60175</v>
+      </c>
+      <c r="Q32" s="2">
+        <f t="shared" si="6"/>
+        <v>7.72523967288993</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="7"/>
+        <v>218.60175</v>
+      </c>
+      <c r="S32" s="2">
+        <f t="shared" si="8"/>
+        <v>5.85225511232184</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:19">
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1">
         <v>231</v>
       </c>
       <c r="E33" s="1">
-        <v>463.80689999999998</v>
+        <v>463.8069</v>
       </c>
       <c r="F33" s="1">
         <v>169.2998</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <f t="shared" si="0"/>
-        <v>2.7395596450793205</v>
+        <v>2.73955964507932</v>
       </c>
       <c r="H33" s="4">
-        <v>62.394199999999998</v>
-      </c>
-      <c r="I33" s="3">
+        <v>62.3942</v>
+      </c>
+      <c r="I33" s="2">
         <f t="shared" si="1"/>
-        <v>7.4334938183356787</v>
+        <v>7.43349381833568</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="2"/>
         <v>115.3942</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <f t="shared" si="3"/>
-        <v>4.0193259279929148</v>
-      </c>
-      <c r="L33" s="3">
+        <v>4.01932592799291</v>
+      </c>
+      <c r="L33" s="2">
         <f t="shared" si="4"/>
-        <v>0.36854266809529601</v>
-      </c>
-      <c r="O33" s="1" t="e">
+        <v>0.368542668095296</v>
+      </c>
+      <c r="M33" s="1">
+        <v>455.487125</v>
+      </c>
+      <c r="N33" s="1">
+        <v>154.875584</v>
+      </c>
+      <c r="O33" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.94098729597042</v>
+      </c>
+      <c r="P33" s="1">
+        <v>31.8285</v>
+      </c>
+      <c r="Q33" s="2">
+        <f t="shared" si="6"/>
+        <v>14.3106688973719</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="7"/>
+        <v>84.8285</v>
+      </c>
+      <c r="S33" s="2">
+        <f t="shared" si="8"/>
+        <v>5.36950582646163</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:19">
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1">
         <v>963</v>
@@ -1856,80 +3061,124 @@
         <v>1901.5851</v>
       </c>
       <c r="F34" s="1">
-        <v>492.57780000000002</v>
-      </c>
-      <c r="G34" s="3">
+        <v>492.5778</v>
+      </c>
+      <c r="G34" s="2">
         <f t="shared" si="0"/>
-        <v>3.8604766597276612</v>
+        <v>3.86047665972766</v>
       </c>
       <c r="H34" s="4">
-        <v>260.83019999999999</v>
-      </c>
-      <c r="I34" s="3">
+        <v>260.8302</v>
+      </c>
+      <c r="I34" s="2">
         <f t="shared" si="1"/>
-        <v>7.2905096879119062</v>
+        <v>7.29050968791191</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="2"/>
-        <v>313.83019999999999</v>
-      </c>
-      <c r="K34" s="3">
+        <v>313.8302</v>
+      </c>
+      <c r="K34" s="2">
         <f t="shared" si="3"/>
-        <v>6.0592801457603507</v>
-      </c>
-      <c r="L34" s="3">
+        <v>6.05928014576035</v>
+      </c>
+      <c r="L34" s="2">
         <f t="shared" si="4"/>
-        <v>0.52952081884323654</v>
-      </c>
-      <c r="O34" s="1" t="e">
+        <v>0.529520818843237</v>
+      </c>
+      <c r="M34" s="1">
+        <f>1000*1.912856833</f>
+        <v>1912.856833</v>
+      </c>
+      <c r="N34" s="1">
+        <v>379.027375</v>
+      </c>
+      <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>5.04675112978317</v>
+      </c>
+      <c r="P34" s="1">
+        <v>133.454458</v>
+      </c>
+      <c r="Q34" s="2">
+        <f t="shared" si="6"/>
+        <v>14.333405280474</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="7"/>
+        <v>186.454458</v>
+      </c>
+      <c r="S34" s="2">
+        <f t="shared" si="8"/>
+        <v>10.259110205882</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:19">
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C35" s="1">
         <v>1924</v>
       </c>
       <c r="E35" s="1">
         <f>4.002594*1000</f>
-        <v>4002.5940000000001</v>
+        <v>4002.594</v>
       </c>
       <c r="F35" s="1">
-        <v>910.86300000000006</v>
-      </c>
-      <c r="G35" s="3">
+        <v>910.863</v>
+      </c>
+      <c r="G35" s="2">
         <f t="shared" si="0"/>
-        <v>4.394287615151784</v>
+        <v>4.39428761515178</v>
       </c>
       <c r="H35" s="4">
-        <v>537.32100000000003</v>
-      </c>
-      <c r="I35" s="3">
+        <v>537.321</v>
+      </c>
+      <c r="I35" s="2">
         <f t="shared" si="1"/>
-        <v>7.4491672575611227</v>
+        <v>7.44916725756112</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="2"/>
-        <v>590.32100000000003</v>
-      </c>
-      <c r="K35" s="3">
+        <v>590.321</v>
+      </c>
+      <c r="K35" s="2">
         <f t="shared" si="3"/>
-        <v>6.7803686468887268</v>
-      </c>
-      <c r="L35" s="3">
+        <v>6.78036864688873</v>
+      </c>
+      <c r="L35" s="2">
         <f t="shared" si="4"/>
-        <v>0.58990320168894772</v>
-      </c>
-      <c r="O35" s="1" t="e">
+        <v>0.589903201688948</v>
+      </c>
+      <c r="M35" s="1">
+        <f>1000*3.698726541</f>
+        <v>3698.726541</v>
+      </c>
+      <c r="N35" s="1">
+        <v>681.472666</v>
+      </c>
+      <c r="O35" s="2">
         <f>H35/N35</f>
-        <v>#DIV/0!</v>
+        <v>0.78847036250754</v>
+      </c>
+      <c r="P35" s="1">
+        <v>284.7245</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" si="6"/>
+        <v>12.9905453903686</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="7"/>
+        <v>337.7245</v>
+      </c>
+      <c r="S35" s="2">
+        <f t="shared" si="8"/>
+        <v>10.9519047063509</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/图.xlsx
+++ b/doc/图.xlsx
@@ -1,40 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\homeWork\Graduation\Circom-AST-Extractor\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB103E00-2B50-459D-83D9-14965BFBDF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="13460"/>
+    <workbookView xWindow="12180" yWindow="3405" windowWidth="25905" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>文件</t>
   </si>
   <si>
-    <t>行数</t>
-  </si>
-  <si>
     <t>内容</t>
   </si>
   <si>
@@ -44,39 +34,18 @@
     <t>Windows新程序用时（ms）</t>
   </si>
   <si>
-    <t>Windows加速比</t>
-  </si>
-  <si>
     <t>仅编译时间</t>
   </si>
   <si>
-    <t>编译加速比</t>
-  </si>
-  <si>
-    <t>处理1 +53ms</t>
-  </si>
-  <si>
-    <t>处理1 加速比</t>
-  </si>
-  <si>
-    <t>编译时间占比</t>
-  </si>
-  <si>
     <t>MacOS原程序用时（ms）</t>
   </si>
   <si>
     <t>MacOS新程序用时（ms）</t>
   </si>
   <si>
-    <t>Mac加速比</t>
-  </si>
-  <si>
     <t>处理1</t>
   </si>
   <si>
-    <t>加速比</t>
-  </si>
-  <si>
     <t>1.circom</t>
   </si>
   <si>
@@ -207,23 +176,60 @@
   </si>
   <si>
     <t>30.circom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">处理1 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载cache.json固定用时50ms左右</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows速度比</t>
+  </si>
+  <si>
+    <t>编译速度比</t>
+  </si>
+  <si>
+    <t>处理1 速度比</t>
+  </si>
+  <si>
+    <t>Mac速度比</t>
+  </si>
+  <si>
+    <t>速度比</t>
+  </si>
+  <si>
+    <t>代码行数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析与构建用时（Windows）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析与构建用时占比（Windows）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析与构建用时占比（MacOS）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -233,357 +239,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.8"/>
+      <sz val="9.8000000000000007"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -591,319 +272,2652 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>分析与构建用时占比</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>代码行数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1645</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-101E-464B-869E-8E5FA03F8E8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="877822640"/>
+        <c:axId val="877821560"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>分析与构建用时占比（Windows）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>3.2988092038891408E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1508500225338403E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8070770197233751E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4569536237629886E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7476647491599501E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2947544939175459E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6873888518689859E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6644660414246452E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2030241172951933E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9893803396336509E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2000543123286648E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18504836790257242</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9171711369360608E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0931893909686978E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12764313409770228</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0974788021076854E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.1124956519959902E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9795107348810128E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13235007935512608</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.14510085535554704</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.19312146934058066</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.25210613389017372</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.30142616732661193</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.40678708403236924</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49886847212566593</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.48032312411587352</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.44344556283514464</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26520792267777193</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.44959695024500795</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.50143224598771163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-101E-464B-869E-8E5FA03F8E8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>分析与构建用时占比（MacOS）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$6:$T$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.3016535950636487E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3990371587837655E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9410468098500755E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0609849736640103E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3717857983688813E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.414571932102773E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9381405098954497E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7575697499752185E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2870533171424977E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0761612469552102E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0369268246350169E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12299122188734761</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4608491545843544E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8947496280720733E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.7206566465536725E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9659524895440073E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.085711946936679E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8659902759151015E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.1420511860846548E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3867716671854359E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.13527873057121018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.19454770382530751</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2401630278040976</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.33656057532262096</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.4439356460515646</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.40393240005247927</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.36561126781708259</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.20551012094972954</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.35209714865581937</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.41780766009476306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-101E-464B-869E-8E5FA03F8E8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="877826240"/>
+        <c:axId val="877827320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="877822640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="877821560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="877821560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="877822640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="877827320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="877826240"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="877826240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="877827320"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>代码行数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1645</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BCA-468F-9EDC-5F69066831A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="880471200"/>
+        <c:axId val="880472280"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>处理1 速度比</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$6:$K$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.30421891743172402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38613256795371481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91400124281714534</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78156436568341603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74608133841853164</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84409021106828797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99194317783233965</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61495936070923574</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72825285300478504</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33509758518028449</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99398528963746358</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.554889594946216</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2611788051979609</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6038870047649576</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.942490645711394</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4615909968719798</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5158552088532657</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4288674619933097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1036911918432661</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0691097842251294</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9669992163957359</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0903012560394263</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.6381378267514926</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.1287263751226941</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.5238939218963212</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.7964679184366279</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.9428988184006961</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8510088860626039</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.263554077467516</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.3819101331391295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0BCA-468F-9EDC-5F69066831A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>速度比</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$S$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.60615867289820602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68023012672743</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69422131220287497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52986209815229601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51396106898133598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59070068817588695</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82131307631551398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35064731530910997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49368357911011601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26770332486625198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.74524695586673095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6953994595638302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.04546054946005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.40063702549119</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7084646371802901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3466893450533901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3295734735809699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.47433536927537</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9400012732645799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.99165635447625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9914994089327198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4924844690063397</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.1792937641778698</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0354025869629204</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.43069243384135</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.6882817437496804</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.8522551123218403</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.36950582646163</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.259110205881999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.9519047063509</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0BCA-468F-9EDC-5F69066831A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="880472640"/>
+        <c:axId val="880478760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="880471200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="880472280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="880472280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="880471200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="880478760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="880472640"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="880472640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="880478760"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0D8084-D239-584E-EFE2-0533009B3D66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1176336</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A08F49F-002E-A682-76F9-C76986CC68D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -923,7 +2937,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -935,7 +2949,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -947,76 +2961,16 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="自定义 1">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
-        <a:ea typeface=""/>
+        <a:latin typeface="Times New Roman"/>
+        <a:ea typeface="宋体"/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
+        <a:latin typeface="Times New Roman"/>
+        <a:ea typeface="宋体"/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1158,273 +3112,291 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B5:S35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B5:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.875" style="1" customWidth="1"/>
     <col min="5" max="6" width="26.125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="15.125" style="1" customWidth="1"/>
-    <col min="9" max="12" width="15.125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="24.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="24.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.875" style="1" customWidth="1"/>
     <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="11.7142857142857" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.92857142857143" style="1"/>
-    <col min="19" max="19" width="11.9285714285714" style="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="16" max="16" width="11.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="18.625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="Q5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="S5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19">
-      <c r="B6" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1">
-        <v>16.807</v>
+        <v>16.806999999999999</v>
       </c>
       <c r="F6" s="1">
-        <v>68.7712</v>
+        <v>68.097300000000004</v>
       </c>
       <c r="G6" s="2">
         <f>E6/F6</f>
-        <v>0.244390093527523</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2.9959</v>
+        <v>0.24680861062039167</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.2464</v>
       </c>
       <c r="I6" s="2">
         <f>E6/H6</f>
-        <v>5.61000033378951</v>
-      </c>
-      <c r="J6" s="4">
+        <v>7.4817485754985746</v>
+      </c>
+      <c r="J6" s="1">
         <f>H6+53</f>
-        <v>55.9959</v>
+        <v>55.246400000000001</v>
       </c>
       <c r="K6" s="2">
         <f>E6/J6</f>
-        <v>0.300146975046387</v>
+        <v>0.30421891743172402</v>
       </c>
       <c r="L6" s="2">
         <f>H6/F6</f>
-        <v>0.0435632939369969</v>
+        <v>3.2988092038891408E-2</v>
       </c>
       <c r="M6" s="1">
-        <v>32.699583</v>
+        <v>32.699582999999997</v>
       </c>
       <c r="N6" s="1">
-        <v>72.64475</v>
+        <v>72.644750000000002</v>
       </c>
       <c r="O6" s="2">
-        <f>M6/P6</f>
-        <v>34.581398988772</v>
+        <f>M6/N6</f>
+        <v>0.45013002316065504</v>
       </c>
       <c r="P6" s="1">
         <f>945.583/1000</f>
-        <v>0.945583</v>
+        <v>0.94558299999999995</v>
       </c>
       <c r="Q6" s="2">
         <f>M6/P6</f>
-        <v>34.581398988772</v>
+        <v>34.581398988772001</v>
       </c>
       <c r="R6" s="1">
         <f>P6+53</f>
-        <v>53.945583</v>
+        <v>53.945582999999999</v>
       </c>
       <c r="S6" s="2">
         <f>M6/R6</f>
-        <v>0.606158672898206</v>
+        <v>0.60615867289820602</v>
+      </c>
+      <c r="T6" s="2">
+        <f>P6/N6</f>
+        <v>1.3016535950636487E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1">
         <v>21.31</v>
       </c>
       <c r="F7" s="1">
-        <v>69.2983</v>
+        <v>69.451099999999997</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" ref="G7:G35" si="0">E7/F7</f>
-        <v>0.307511151067198</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2.9222</v>
+        <v>0.30683459297260951</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.1882999999999999</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" ref="I7:I35" si="1">E7/H7</f>
-        <v>7.29245089316268</v>
-      </c>
-      <c r="J7" s="4">
+        <v>9.7381529040807937</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" ref="J7:J35" si="2">H7+53</f>
-        <v>55.9222</v>
+        <v>55.188299999999998</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" ref="K7:K35" si="3">E7/J7</f>
-        <v>0.381065122616778</v>
+        <v>0.38613256795371481</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" ref="L7:L35" si="4">H7/F7</f>
-        <v>0.0421684226019975</v>
+        <v>3.1508500225338403E-2</v>
       </c>
       <c r="M7" s="1">
-        <v>36.86425</v>
+        <v>36.864249999999998</v>
       </c>
       <c r="N7" s="1">
-        <v>85.329542</v>
+        <v>85.329542000000004</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" ref="O7:O35" si="5">M7/N7</f>
-        <v>0.432022124295475</v>
+        <f t="shared" ref="O7:O34" si="5">M7/N7</f>
+        <v>0.43202212429547499</v>
       </c>
       <c r="P7" s="1">
         <v>1.193792</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" ref="Q7:Q35" si="6">M7/P7</f>
-        <v>30.8799606631641</v>
+        <v>30.879960663164098</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" ref="R7:R35" si="7">P7+53</f>
-        <v>54.193792</v>
+        <v>54.193792000000002</v>
       </c>
       <c r="S7" s="2">
         <f t="shared" ref="S7:S35" si="8">M7/R7</f>
         <v>0.68023012672743</v>
       </c>
+      <c r="T7" s="2">
+        <f t="shared" ref="T7:T35" si="9">P7/N7</f>
+        <v>1.3990371587837655E-2</v>
+      </c>
     </row>
-    <row r="8" spans="2:19">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1">
-        <v>52.3624</v>
+        <v>52.362400000000001</v>
       </c>
       <c r="F8" s="1">
-        <v>75.4434</v>
+        <v>73.861599999999996</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>0.694062038561359</v>
-      </c>
-      <c r="H8" s="4">
-        <v>5.8584</v>
+        <v>0.70892588300280535</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4.2892000000000001</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="1"/>
-        <v>8.93800355045746</v>
-      </c>
-      <c r="J8" s="4">
+        <v>12.207964189126177</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="2"/>
-        <v>58.8584</v>
+        <v>57.289200000000001</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="3"/>
-        <v>0.889633425305479</v>
+        <v>0.91400124281714534</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="4"/>
-        <v>0.0776529159608395</v>
+        <v>5.8070770197233751E-2</v>
       </c>
       <c r="M8" s="1">
-        <v>38.602292</v>
+        <v>38.602291999999998</v>
       </c>
       <c r="N8" s="1">
         <v>88.579583</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="5"/>
-        <v>0.435792207330667</v>
+        <v>0.43579220733066698</v>
       </c>
       <c r="P8" s="1">
-        <v>2.605167</v>
+        <v>2.6051669999999998</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="6"/>
@@ -1432,64 +3404,68 @@
       </c>
       <c r="R8" s="1">
         <f t="shared" si="7"/>
-        <v>55.605167</v>
+        <v>55.605167000000002</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="8"/>
-        <v>0.694221312202875</v>
+        <v>0.69422131220287497</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="9"/>
+        <v>2.9410468098500755E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:19">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
-        <v>43.3447</v>
+        <v>43.344700000000003</v>
       </c>
       <c r="F9" s="1">
-        <v>69.8589</v>
+        <v>71.129099999999994</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>0.620460671439144</v>
-      </c>
-      <c r="H9" s="4">
-        <v>3.9968</v>
+        <v>0.60938068947870849</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.4588999999999999</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="1"/>
-        <v>10.8448508807046</v>
-      </c>
-      <c r="J9" s="4">
+        <v>17.627679043474728</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="2"/>
-        <v>56.9968</v>
+        <v>55.4589</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="3"/>
-        <v>0.760476026724307</v>
+        <v>0.78156436568341603</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="4"/>
-        <v>0.057212466843881</v>
+        <v>3.4569536237629886E-2</v>
       </c>
       <c r="M9" s="1">
-        <v>28.952791</v>
+        <v>28.952791000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>79.676709</v>
+        <v>79.676709000000002</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="5"/>
-        <v>0.363378349374345</v>
+        <v>0.36337834937434499</v>
       </c>
       <c r="P9" s="1">
-        <v>1.642125</v>
+        <v>1.6421250000000001</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="6"/>
@@ -1501,57 +3477,61 @@
       </c>
       <c r="S9" s="2">
         <f t="shared" si="8"/>
-        <v>0.529862098152296</v>
+        <v>0.52986209815229601</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="9"/>
+        <v>2.0609849736640103E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:19">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1">
-        <v>42.1956</v>
+        <v>42.195599999999999</v>
       </c>
       <c r="F10" s="1">
-        <v>73.7912</v>
+        <v>74.906300000000002</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>0.571824282570279</v>
-      </c>
-      <c r="H10" s="4">
-        <v>4.9982</v>
+        <v>0.56331176416402895</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.5562999999999998</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="1"/>
-        <v>8.44215917730383</v>
-      </c>
-      <c r="J10" s="4">
+        <v>11.865028259708124</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="2"/>
-        <v>57.9982</v>
+        <v>56.5563</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="3"/>
-        <v>0.727532923435555</v>
+        <v>0.74608133841853164</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="4"/>
-        <v>0.067734363989202</v>
+        <v>4.7476647491599501E-2</v>
       </c>
       <c r="M10" s="1">
-        <v>28.332125</v>
+        <v>28.332125000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>89.596666</v>
+        <v>89.596665999999999</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="5"/>
-        <v>0.316218518666755</v>
+        <v>0.31621851866675499</v>
       </c>
       <c r="P10" s="1">
         <v>2.125041</v>
@@ -1562,64 +3542,68 @@
       </c>
       <c r="R10" s="1">
         <f t="shared" si="7"/>
-        <v>55.125041</v>
+        <v>55.125041000000003</v>
       </c>
       <c r="S10" s="2">
         <f t="shared" si="8"/>
-        <v>0.513961068981336</v>
+        <v>0.51396106898133598</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="9"/>
+        <v>2.3717857983688813E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:19">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1">
-        <v>47.9856</v>
+        <v>47.985599999999998</v>
       </c>
       <c r="F11" s="1">
-        <v>83.871</v>
+        <v>72.692700000000002</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>0.572135779947777</v>
-      </c>
-      <c r="H11" s="4">
-        <v>15.3204</v>
+        <v>0.66011580254963698</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.8489</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="1"/>
-        <v>3.13213754210073</v>
-      </c>
-      <c r="J11" s="4">
+        <v>12.467354309023357</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="2"/>
-        <v>68.3204</v>
+        <v>56.8489</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="3"/>
-        <v>0.702361227393282</v>
+        <v>0.84409021106828797</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="4"/>
-        <v>0.182666237436063</v>
+        <v>5.2947544939175459E-2</v>
       </c>
       <c r="M11" s="1">
-        <v>33.04675</v>
+        <v>33.046750000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>86.248</v>
+        <v>86.248000000000005</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="5"/>
         <v>0.383159609498191</v>
       </c>
       <c r="P11" s="1">
-        <v>2.945</v>
+        <v>2.9449999999999998</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="6"/>
@@ -1631,60 +3615,64 @@
       </c>
       <c r="S11" s="2">
         <f t="shared" si="8"/>
-        <v>0.590700688175887</v>
+        <v>0.59070068817588695</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="9"/>
+        <v>3.414571932102773E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:19">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1">
-        <v>56.5606</v>
+        <v>56.560600000000001</v>
       </c>
       <c r="F12" s="1">
-        <v>72.8059</v>
+        <v>70.682699999999997</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>0.776868358196245</v>
-      </c>
-      <c r="H12" s="4">
-        <v>5.7195</v>
+        <v>0.80020429327119658</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4.0199999999999996</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="1"/>
-        <v>9.88908121339278</v>
-      </c>
-      <c r="J12" s="4">
+        <v>14.069800995024877</v>
+      </c>
+      <c r="J12" s="1">
         <f t="shared" si="2"/>
-        <v>58.7195</v>
+        <v>57.019999999999996</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="3"/>
-        <v>0.963233678760889</v>
+        <v>0.99194317783233965</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="4"/>
-        <v>0.0785581937727574</v>
+        <v>5.6873888518689859E-2</v>
       </c>
       <c r="M12" s="1">
         <v>45.552042</v>
       </c>
       <c r="N12" s="1">
-        <v>83.810083</v>
+        <v>83.810083000000006</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="5"/>
-        <v>0.54351505653562</v>
+        <v>0.54351505653562004</v>
       </c>
       <c r="P12" s="1">
-        <v>2.462458</v>
+        <v>2.4624579999999998</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="6"/>
@@ -1692,61 +3680,65 @@
       </c>
       <c r="R12" s="1">
         <f t="shared" si="7"/>
-        <v>55.462458</v>
+        <v>55.462457999999998</v>
       </c>
       <c r="S12" s="2">
         <f t="shared" si="8"/>
-        <v>0.821313076315514</v>
+        <v>0.82131307631551398</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="9"/>
+        <v>2.9381405098954497E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:19">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1">
-        <v>34.1835</v>
+        <v>34.183500000000002</v>
       </c>
       <c r="F13" s="1">
-        <v>82.3728</v>
+        <v>70.585999999999999</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>0.414985286405221</v>
-      </c>
-      <c r="H13" s="4">
-        <v>13.4815</v>
+        <v>0.48428158558354351</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.5865999999999998</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="1"/>
-        <v>2.53558580276675</v>
-      </c>
-      <c r="J13" s="4">
+        <v>13.215611227093484</v>
+      </c>
+      <c r="J13" s="1">
         <f t="shared" si="2"/>
-        <v>66.4815</v>
+        <v>55.586599999999997</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="3"/>
-        <v>0.514180636718486</v>
+        <v>0.61495936070923574</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="4"/>
-        <v>0.163664462055436</v>
+        <v>3.6644660414246452E-2</v>
       </c>
       <c r="M13" s="1">
-        <v>19.089459</v>
+        <v>19.089459000000002</v>
       </c>
       <c r="N13" s="1">
-        <v>81.966875</v>
+        <v>81.966875000000002</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="5"/>
-        <v>0.232892360480987</v>
+        <v>0.23289236048098699</v>
       </c>
       <c r="P13" s="1">
         <v>1.440625</v>
@@ -1757,51 +3749,55 @@
       </c>
       <c r="R13" s="1">
         <f t="shared" si="7"/>
-        <v>54.440625</v>
+        <v>54.440624999999997</v>
       </c>
       <c r="S13" s="2">
         <f t="shared" si="8"/>
-        <v>0.35064731530911</v>
+        <v>0.35064731530910997</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" si="9"/>
+        <v>1.7575697499752185E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:19">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E14" s="1">
-        <v>40.8796</v>
+        <v>40.879600000000003</v>
       </c>
       <c r="F14" s="1">
-        <v>75.1176</v>
+        <v>74.560599999999994</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>0.544208015165554</v>
-      </c>
-      <c r="H14" s="4">
-        <v>5.2937</v>
+        <v>0.54827348492367289</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3.1337999999999999</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="1"/>
-        <v>7.72231142679034</v>
-      </c>
-      <c r="J14" s="4">
+        <v>13.04473801774204</v>
+      </c>
+      <c r="J14" s="1">
         <f t="shared" si="2"/>
-        <v>58.2937</v>
+        <v>56.133800000000001</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="3"/>
-        <v>0.701269605463369</v>
+        <v>0.72825285300478504</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="4"/>
-        <v>0.0704721663098928</v>
+        <v>4.2030241172951933E-2</v>
       </c>
       <c r="M14" s="1">
         <v>27.140666</v>
@@ -1811,76 +3807,80 @@
       </c>
       <c r="O14" s="2">
         <f t="shared" si="5"/>
-        <v>0.314156865508151</v>
+        <v>0.31415686550815097</v>
       </c>
       <c r="P14" s="1">
         <v>1.975833</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="6"/>
-        <v>13.7363157716264</v>
+        <v>13.736315771626399</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="7"/>
-        <v>54.975833</v>
+        <v>54.975833000000002</v>
       </c>
       <c r="S14" s="2">
         <f t="shared" si="8"/>
-        <v>0.493683579110116</v>
+        <v>0.49368357911011601</v>
+      </c>
+      <c r="T14" s="2">
+        <f t="shared" si="9"/>
+        <v>2.2870533171424977E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1">
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1">
-        <v>18.4366</v>
+        <v>18.436599999999999</v>
       </c>
       <c r="F15" s="1">
-        <v>77.6885</v>
+        <v>67.525700000000001</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
-        <v>0.237314403032624</v>
-      </c>
-      <c r="H15" s="4">
-        <v>2.3695</v>
+        <v>0.27303086084261247</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2.0186000000000002</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="1"/>
-        <v>7.7807976366322</v>
-      </c>
-      <c r="J15" s="4">
+        <v>9.1333597542851468</v>
+      </c>
+      <c r="J15" s="1">
         <f t="shared" si="2"/>
-        <v>55.3695</v>
+        <v>55.018599999999999</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="3"/>
-        <v>0.332973929690534</v>
+        <v>0.33509758518028449</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="4"/>
-        <v>0.0305000096539385</v>
+        <v>2.9893803396336509E-2</v>
       </c>
       <c r="M15" s="1">
         <v>14.431875</v>
       </c>
       <c r="N15" s="1">
-        <v>84.555916</v>
+        <v>84.555915999999996</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="5"/>
-        <v>0.170678477423153</v>
+        <v>0.17067847742315301</v>
       </c>
       <c r="P15" s="1">
         <f>0.001*909.958</f>
-        <v>0.909958</v>
+        <v>0.90995800000000004</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="6"/>
@@ -1888,64 +3888,68 @@
       </c>
       <c r="R15" s="1">
         <f t="shared" si="7"/>
-        <v>53.909958</v>
+        <v>53.909958000000003</v>
       </c>
       <c r="S15" s="2">
         <f t="shared" si="8"/>
-        <v>0.267703324866252</v>
+        <v>0.26770332486625198</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0761612469552102E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1">
         <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1">
-        <v>57.097</v>
+        <v>57.097000000000001</v>
       </c>
       <c r="F16" s="1">
-        <v>79.8635</v>
+        <v>85.431799999999996</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="0"/>
-        <v>0.714932353327866</v>
-      </c>
-      <c r="H16" s="4">
-        <v>6.3958</v>
+        <v>0.6683342736545409</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4.4424999999999999</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="1"/>
-        <v>8.92726476750367</v>
-      </c>
-      <c r="J16" s="4">
+        <v>12.852447945976365</v>
+      </c>
+      <c r="J16" s="1">
         <f t="shared" si="2"/>
-        <v>59.3958</v>
+        <v>57.442500000000003</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="3"/>
-        <v>0.961296926718724</v>
+        <v>0.99398528963746358</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="4"/>
-        <v>0.0800841435699663</v>
+        <v>5.2000543123286648E-2</v>
       </c>
       <c r="M16" s="1">
-        <v>42.190417</v>
+        <v>42.190416999999997</v>
       </c>
       <c r="N16" s="1">
-        <v>89.4905</v>
+        <v>89.490499999999997</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="5"/>
         <v>0.471451349584593</v>
       </c>
       <c r="P16" s="1">
-        <v>3.612666</v>
+        <v>3.6126659999999999</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="6"/>
@@ -1953,68 +3957,72 @@
       </c>
       <c r="R16" s="1">
         <f t="shared" si="7"/>
-        <v>56.612666</v>
+        <v>56.612665999999997</v>
       </c>
       <c r="S16" s="2">
         <f t="shared" si="8"/>
-        <v>0.745246955866731</v>
+        <v>0.74524695586673095</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" si="9"/>
+        <v>4.0369268246350169E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1">
         <v>98</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1">
-        <v>266.9587</v>
+        <v>266.95870000000002</v>
       </c>
       <c r="F17" s="1">
-        <v>120.2714</v>
+        <v>119.40770000000001</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="0"/>
-        <v>2.21963575712929</v>
-      </c>
-      <c r="H17" s="4">
-        <v>30.8376</v>
+        <v>2.2356908306583243</v>
+      </c>
+      <c r="H17" s="1">
+        <v>22.0962</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="1"/>
-        <v>8.65692206916232</v>
-      </c>
-      <c r="J17" s="4">
+        <v>12.081656574433614</v>
+      </c>
+      <c r="J17" s="1">
         <f t="shared" si="2"/>
-        <v>83.8376</v>
+        <v>75.096199999999996</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="3"/>
-        <v>3.18423595141082</v>
+        <v>3.554889594946216</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="4"/>
-        <v>0.256400108421453</v>
+        <v>0.18504836790257242</v>
       </c>
       <c r="M17" s="1">
-        <v>249.533541</v>
+        <v>249.53354100000001</v>
       </c>
       <c r="N17" s="1">
-        <v>118.101583</v>
+        <v>118.10158300000001</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="5"/>
-        <v>2.11287211112149</v>
+        <v>2.1128721111214901</v>
       </c>
       <c r="P17" s="1">
         <v>14.525458</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="6"/>
-        <v>17.1790480548014</v>
+        <v>17.179048054801399</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" si="7"/>
@@ -2022,60 +4030,64 @@
       </c>
       <c r="S17" s="2">
         <f t="shared" si="8"/>
-        <v>3.69539945956383</v>
+        <v>3.6953994595638302</v>
+      </c>
+      <c r="T17" s="2">
+        <f t="shared" si="9"/>
+        <v>0.12299122188734761</v>
       </c>
     </row>
-    <row r="18" spans="2:19">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1">
         <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1">
-        <v>74.7396</v>
+        <v>74.739599999999996</v>
       </c>
       <c r="F18" s="1">
-        <v>84.0658</v>
+        <v>90.524000000000001</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="0"/>
-        <v>0.889060711966103</v>
-      </c>
-      <c r="H18" s="4">
-        <v>8.9136</v>
+        <v>0.82563298130882412</v>
+      </c>
+      <c r="H18" s="1">
+        <v>6.2617000000000003</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="1"/>
-        <v>8.38489499192245</v>
-      </c>
-      <c r="J18" s="4">
+        <v>11.935991823306768</v>
+      </c>
+      <c r="J18" s="1">
         <f t="shared" si="2"/>
-        <v>61.9136</v>
+        <v>59.261699999999998</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="3"/>
-        <v>1.20715965474468</v>
+        <v>1.2611788051979609</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="4"/>
-        <v>0.106031227919082</v>
+        <v>6.9171711369360608E-2</v>
       </c>
       <c r="M18" s="1">
-        <v>59.89975</v>
+        <v>59.899749999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>96.284</v>
+        <v>96.284000000000006</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="5"/>
-        <v>0.622115304723526</v>
+        <v>0.62211530472352605</v>
       </c>
       <c r="P18" s="1">
-        <v>4.295084</v>
+        <v>4.2950840000000001</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="6"/>
@@ -2083,61 +4095,65 @@
       </c>
       <c r="R18" s="1">
         <f t="shared" si="7"/>
-        <v>57.295084</v>
+        <v>57.295084000000003</v>
       </c>
       <c r="S18" s="2">
         <f t="shared" si="8"/>
         <v>1.04546054946005</v>
       </c>
+      <c r="T18" s="2">
+        <f t="shared" si="9"/>
+        <v>4.4608491545843544E-2</v>
+      </c>
     </row>
-    <row r="19" spans="2:19">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1">
         <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1">
-        <v>98.321</v>
+        <v>98.320999999999998</v>
       </c>
       <c r="F19" s="1">
-        <v>86.371</v>
+        <v>91.2958</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="0"/>
-        <v>1.13835662432993</v>
-      </c>
-      <c r="H19" s="4">
-        <v>12.0853</v>
+        <v>1.0769498706402705</v>
+      </c>
+      <c r="H19" s="1">
+        <v>8.3017000000000003</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="1"/>
-        <v>8.13558620803786</v>
-      </c>
-      <c r="J19" s="4">
+        <v>11.843477841887806</v>
+      </c>
+      <c r="J19" s="1">
         <f t="shared" si="2"/>
-        <v>65.0853</v>
+        <v>61.301699999999997</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="3"/>
-        <v>1.51064833380195</v>
+        <v>1.6038870047649576</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="4"/>
-        <v>0.139923122344305</v>
+        <v>9.0931893909686978E-2</v>
       </c>
       <c r="M19" s="1">
-        <v>82.3225</v>
+        <v>82.322500000000005</v>
       </c>
       <c r="N19" s="1">
-        <v>97.96925</v>
+        <v>97.969250000000002</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="5"/>
-        <v>0.84028917236786</v>
+        <v>0.84028917236786005</v>
       </c>
       <c r="P19" s="1">
         <v>5.775042</v>
@@ -2148,194 +4164,206 @@
       </c>
       <c r="R19" s="1">
         <f t="shared" si="7"/>
-        <v>58.775042</v>
+        <v>58.775041999999999</v>
       </c>
       <c r="S19" s="2">
         <f t="shared" si="8"/>
         <v>1.40063702549119</v>
       </c>
+      <c r="T19" s="2">
+        <f t="shared" si="9"/>
+        <v>5.8947496280720733E-2</v>
+      </c>
     </row>
-    <row r="20" spans="2:19">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1">
         <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1">
-        <v>188.4218</v>
+        <v>188.42179999999999</v>
       </c>
       <c r="F20" s="1">
-        <v>89.1333</v>
+        <v>86.450400000000002</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="0"/>
-        <v>2.11393272772353</v>
-      </c>
-      <c r="H20" s="4">
-        <v>15.3579</v>
+        <v>2.1795364740938155</v>
+      </c>
+      <c r="H20" s="1">
+        <v>11.034800000000001</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="1"/>
-        <v>12.2687216351194</v>
-      </c>
-      <c r="J20" s="4">
+        <v>17.075234712002029</v>
+      </c>
+      <c r="J20" s="1">
         <f t="shared" si="2"/>
-        <v>68.3579</v>
+        <v>64.034800000000004</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="3"/>
-        <v>2.75640123526322</v>
+        <v>2.942490645711394</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="4"/>
-        <v>0.17230260744301</v>
+        <v>0.12764313409770228</v>
       </c>
       <c r="M20" s="1">
         <v>164.143</v>
       </c>
       <c r="N20" s="1">
-        <v>98.48525</v>
+        <v>98.485249999999994</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="5"/>
         <v>1.66667597432103</v>
       </c>
       <c r="P20" s="1">
-        <v>7.603708</v>
+        <v>7.6037080000000001</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="6"/>
-        <v>21.5872308615744</v>
+        <v>21.587230861574401</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" si="7"/>
-        <v>60.603708</v>
+        <v>60.603707999999997</v>
       </c>
       <c r="S20" s="2">
         <f t="shared" si="8"/>
-        <v>2.70846463718029</v>
+        <v>2.7084646371802901</v>
+      </c>
+      <c r="T20" s="2">
+        <f t="shared" si="9"/>
+        <v>7.7206566465536725E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:19">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1">
         <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E21" s="1">
-        <v>88.1715</v>
+        <v>88.171499999999995</v>
       </c>
       <c r="F21" s="1">
-        <v>85.7965</v>
+        <v>90.468900000000005</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="0"/>
-        <v>1.02768178189087</v>
-      </c>
-      <c r="H21" s="4">
-        <v>10.6876</v>
+        <v>0.9746056379595639</v>
+      </c>
+      <c r="H21" s="1">
+        <v>7.3257000000000003</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="1"/>
-        <v>8.24988772034881</v>
-      </c>
-      <c r="J21" s="4">
+        <v>12.035914656619845</v>
+      </c>
+      <c r="J21" s="1">
         <f t="shared" si="2"/>
-        <v>63.6876</v>
+        <v>60.325699999999998</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="3"/>
-        <v>1.38443747291466</v>
+        <v>1.4615909968719798</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="4"/>
-        <v>0.124569184057625</v>
+        <v>8.0974788021076854E-2</v>
       </c>
       <c r="M21" s="1">
-        <v>77.7905</v>
+        <v>77.790499999999994</v>
       </c>
       <c r="N21" s="1">
-        <v>95.938292</v>
+        <v>95.938292000000004</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="5"/>
-        <v>0.810838908826936</v>
+        <v>0.81083890882693599</v>
       </c>
       <c r="P21" s="1">
-        <v>4.76425</v>
+        <v>4.7642499999999997</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="6"/>
-        <v>16.3279634779871</v>
+        <v>16.327963477987101</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" si="7"/>
-        <v>57.76425</v>
+        <v>57.764249999999997</v>
       </c>
       <c r="S21" s="2">
         <f t="shared" si="8"/>
-        <v>1.34668934505339</v>
+        <v>1.3466893450533901</v>
+      </c>
+      <c r="T21" s="2">
+        <f t="shared" si="9"/>
+        <v>4.9659524895440073E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:19">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1">
         <v>141</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E22" s="1">
-        <v>93.8422</v>
+        <v>93.842200000000005</v>
       </c>
       <c r="F22" s="1">
-        <v>94.2135</v>
+        <v>97.745999999999995</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="0"/>
-        <v>0.996058951211875</v>
-      </c>
-      <c r="H22" s="4">
-        <v>13.855</v>
+        <v>0.96006179280993609</v>
+      </c>
+      <c r="H22" s="1">
+        <v>8.9070999999999998</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="1"/>
-        <v>6.77316492241068</v>
-      </c>
-      <c r="J22" s="4">
+        <v>10.535662561327481</v>
+      </c>
+      <c r="J22" s="1">
         <f t="shared" si="2"/>
-        <v>66.855</v>
+        <v>61.9071</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="3"/>
-        <v>1.40366763892005</v>
+        <v>1.5158552088532657</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="4"/>
-        <v>0.147059603984567</v>
+        <v>9.1124956519959902E-2</v>
       </c>
       <c r="M22" s="1">
-        <v>78.622333</v>
+        <v>78.622332999999998</v>
       </c>
       <c r="N22" s="1">
         <v>100.78525</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="5"/>
-        <v>0.780097613490069</v>
+        <v>0.78009761349006901</v>
       </c>
       <c r="P22" s="1">
-        <v>6.1335</v>
+        <v>6.1334999999999997</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="6"/>
@@ -2343,64 +4371,68 @@
       </c>
       <c r="R22" s="1">
         <f t="shared" si="7"/>
-        <v>59.1335</v>
+        <v>59.133499999999998</v>
       </c>
       <c r="S22" s="2">
         <f t="shared" si="8"/>
-        <v>1.32957347358097</v>
+        <v>1.3295734735809699</v>
+      </c>
+      <c r="T22" s="2">
+        <f t="shared" si="9"/>
+        <v>6.085711946936679E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:19">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1">
         <v>142</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1">
-        <v>90.8111</v>
+        <v>90.811099999999996</v>
       </c>
       <c r="F23" s="1">
-        <v>97.4276</v>
+        <v>105.7627</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="0"/>
-        <v>0.932088032549298</v>
-      </c>
-      <c r="H23" s="4">
-        <v>16.2486</v>
+        <v>0.85863068926946839</v>
+      </c>
+      <c r="H23" s="1">
+        <v>10.554600000000001</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="1"/>
-        <v>5.58885688613173</v>
-      </c>
-      <c r="J23" s="4">
+        <v>8.6039357247077088</v>
+      </c>
+      <c r="J23" s="1">
         <f t="shared" si="2"/>
-        <v>69.2486</v>
+        <v>63.554600000000001</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="3"/>
-        <v>1.31137813616449</v>
+        <v>1.4288674619933097</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="4"/>
-        <v>0.16677614967422</v>
+        <v>9.9795107348810128E-2</v>
       </c>
       <c r="M23" s="1">
-        <v>88.489917</v>
+        <v>88.489917000000005</v>
       </c>
       <c r="N23" s="1">
-        <v>102.246125</v>
+        <v>102.24612500000001</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="5"/>
-        <v>0.865459859725735</v>
+        <v>0.86545985972573503</v>
       </c>
       <c r="P23" s="1">
-        <v>7.020209</v>
+        <v>7.0202090000000004</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="6"/>
@@ -2408,64 +4440,68 @@
       </c>
       <c r="R23" s="1">
         <f t="shared" si="7"/>
-        <v>60.020209</v>
+        <v>60.020209000000001</v>
       </c>
       <c r="S23" s="2">
         <f t="shared" si="8"/>
         <v>1.47433536927537</v>
       </c>
+      <c r="T23" s="2">
+        <f t="shared" si="9"/>
+        <v>6.8659902759151015E-2</v>
+      </c>
     </row>
-    <row r="24" spans="2:19">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1">
         <v>153</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E24" s="1">
-        <v>137.2486</v>
+        <v>137.24860000000001</v>
       </c>
       <c r="F24" s="1">
-        <v>99.7856</v>
+        <v>92.495599999999996</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="0"/>
-        <v>1.37543493249527</v>
-      </c>
-      <c r="H24" s="4">
-        <v>19.2585</v>
+        <v>1.4838392312715418</v>
+      </c>
+      <c r="H24" s="1">
+        <v>12.2418</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="1"/>
-        <v>7.12665056987824</v>
-      </c>
-      <c r="J24" s="4">
+        <v>11.211472169125457</v>
+      </c>
+      <c r="J24" s="1">
         <f t="shared" si="2"/>
-        <v>72.2585</v>
+        <v>65.241799999999998</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="3"/>
-        <v>1.89941114194178</v>
+        <v>2.1036911918432661</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="4"/>
-        <v>0.192998789404483</v>
+        <v>0.13235007935512608</v>
       </c>
       <c r="M24" s="1">
-        <v>119.666959</v>
+        <v>119.66695900000001</v>
       </c>
       <c r="N24" s="1">
-        <v>106.655667</v>
+        <v>106.65566699999999</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="5"/>
         <v>1.12199344269255</v>
       </c>
       <c r="P24" s="1">
-        <v>8.683959</v>
+        <v>8.6839589999999998</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="6"/>
@@ -2473,51 +4509,55 @@
       </c>
       <c r="R24" s="1">
         <f t="shared" si="7"/>
-        <v>61.683959</v>
+        <v>61.683959000000002</v>
       </c>
       <c r="S24" s="2">
         <f t="shared" si="8"/>
-        <v>1.94000127326458</v>
+        <v>1.9400012732645799</v>
+      </c>
+      <c r="T24" s="2">
+        <f t="shared" si="9"/>
+        <v>8.1420511860846548E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1">
         <v>94</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1">
-        <v>137.8832</v>
+        <v>137.88319999999999</v>
       </c>
       <c r="F25" s="1">
-        <v>101.4475</v>
+        <v>93.995999999999995</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="0"/>
-        <v>1.35915818526824</v>
-      </c>
-      <c r="H25" s="4">
-        <v>18.44</v>
+        <v>1.4669049746797735</v>
+      </c>
+      <c r="H25" s="1">
+        <v>13.6389</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="1"/>
-        <v>7.47739696312364</v>
-      </c>
-      <c r="J25" s="4">
+        <v>10.109554289568806</v>
+      </c>
+      <c r="J25" s="1">
         <f t="shared" si="2"/>
-        <v>71.44</v>
+        <v>66.638900000000007</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="3"/>
-        <v>1.93005599104143</v>
+        <v>2.0691097842251294</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="4"/>
-        <v>0.181768895241381</v>
+        <v>0.14510085535554704</v>
       </c>
       <c r="M25" s="1">
         <v>123.389833</v>
@@ -2527,10 +4567,10 @@
       </c>
       <c r="O25" s="2">
         <f t="shared" si="5"/>
-        <v>1.15581259069696</v>
+        <v>1.1558125906969601</v>
       </c>
       <c r="P25" s="1">
-        <v>8.953375</v>
+        <v>8.9533749999999994</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="6"/>
@@ -2538,78 +4578,86 @@
       </c>
       <c r="R25" s="1">
         <f t="shared" si="7"/>
-        <v>61.953375</v>
+        <v>61.953375000000001</v>
       </c>
       <c r="S25" s="2">
         <f t="shared" si="8"/>
         <v>1.99165635447625</v>
       </c>
+      <c r="T25" s="2">
+        <f t="shared" si="9"/>
+        <v>8.3867716671854359E-2</v>
+      </c>
     </row>
-    <row r="26" spans="2:19">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1">
         <v>207</v>
       </c>
       <c r="E26" s="1">
-        <v>225.6664</v>
+        <v>225.66640000000001</v>
       </c>
       <c r="F26" s="1">
-        <v>145.4653</v>
+        <v>119.40049999999999</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="0"/>
-        <v>1.55134179766584</v>
-      </c>
-      <c r="H26" s="4">
-        <v>36.7196</v>
+        <v>1.8899954355300022</v>
+      </c>
+      <c r="H26" s="1">
+        <v>23.058800000000002</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="1"/>
-        <v>6.14566607479384</v>
-      </c>
-      <c r="J26" s="4">
+        <v>9.7865630475133134</v>
+      </c>
+      <c r="J26" s="1">
         <f t="shared" si="2"/>
-        <v>89.7196</v>
+        <v>76.058800000000005</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="3"/>
-        <v>2.51524081694524</v>
+        <v>2.9669992163957359</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="4"/>
-        <v>0.252428586061418</v>
+        <v>0.19312146934058066</v>
       </c>
       <c r="M26" s="1">
-        <v>210.4465</v>
+        <v>210.44649999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>128.240167</v>
+        <v>128.24016700000001</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
-        <v>1.64103420108615</v>
+        <v>1.6410342010861501</v>
       </c>
       <c r="P26" s="1">
         <v>17.348167</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="6"/>
-        <v>12.1307628638807</v>
+        <v>12.130762863880699</v>
       </c>
       <c r="R26" s="1">
         <f t="shared" si="7"/>
-        <v>70.348167</v>
+        <v>70.348167000000004</v>
       </c>
       <c r="S26" s="2">
         <f t="shared" si="8"/>
-        <v>2.99149940893272</v>
+        <v>2.9914994089327198</v>
+      </c>
+      <c r="T26" s="2">
+        <f t="shared" si="9"/>
+        <v>0.13527873057121018</v>
       </c>
     </row>
-    <row r="27" spans="2:19">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1">
         <v>389</v>
@@ -2618,30 +4666,30 @@
         <v>406.0213</v>
       </c>
       <c r="F27" s="1">
-        <v>200.8957</v>
+        <v>183.51159999999999</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="0"/>
-        <v>2.02105520426769</v>
-      </c>
-      <c r="H27" s="4">
-        <v>72.4205</v>
+        <v>2.2125102718302276</v>
+      </c>
+      <c r="H27" s="1">
+        <v>46.264400000000002</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="1"/>
-        <v>5.60644154624726</v>
-      </c>
-      <c r="J27" s="4">
+        <v>8.7761064663110293</v>
+      </c>
+      <c r="J27" s="1">
         <f t="shared" si="2"/>
-        <v>125.4205</v>
+        <v>99.264399999999995</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="3"/>
-        <v>3.23728018944271</v>
+        <v>4.0903012560394263</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="4"/>
-        <v>0.360488054249046</v>
+        <v>0.25210613389017372</v>
       </c>
       <c r="M27" s="1">
         <v>395.904875</v>
@@ -2651,76 +4699,80 @@
       </c>
       <c r="O27" s="2">
         <f t="shared" si="5"/>
-        <v>2.1927430470104</v>
+        <v>2.1927430470104001</v>
       </c>
       <c r="P27" s="1">
-        <v>35.126042</v>
+        <v>35.126041999999998</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="6"/>
-        <v>11.2709788082586</v>
+        <v>11.270978808258601</v>
       </c>
       <c r="R27" s="1">
         <f t="shared" si="7"/>
-        <v>88.126042</v>
+        <v>88.126041999999998</v>
       </c>
       <c r="S27" s="2">
         <f t="shared" si="8"/>
-        <v>4.49248446900634</v>
+        <v>4.4924844690063397</v>
+      </c>
+      <c r="T27" s="2">
+        <f t="shared" si="9"/>
+        <v>0.19454770382530751</v>
       </c>
     </row>
-    <row r="28" spans="2:19">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1">
         <v>550</v>
       </c>
       <c r="E28" s="1">
-        <v>568.0717</v>
+        <v>568.07169999999996</v>
       </c>
       <c r="F28" s="1">
-        <v>276.3609</v>
+        <v>230.49889999999999</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="0"/>
-        <v>2.05554295126409</v>
-      </c>
-      <c r="H28" s="4">
-        <v>110.7773</v>
+        <v>2.4645310671764595</v>
+      </c>
+      <c r="H28" s="1">
+        <v>69.478399999999993</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="1"/>
-        <v>5.12805150513688</v>
-      </c>
-      <c r="J28" s="4">
+        <v>8.1762346283161396</v>
+      </c>
+      <c r="J28" s="1">
         <f t="shared" si="2"/>
-        <v>163.7773</v>
+        <v>122.47839999999999</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="3"/>
-        <v>3.46856188250753</v>
+        <v>4.6381378267514926</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="4"/>
-        <v>0.400842883345654</v>
+        <v>0.30142616732661193</v>
       </c>
       <c r="M28" s="1">
-        <v>552.480875</v>
+        <v>552.48087499999997</v>
       </c>
       <c r="N28" s="1">
-        <v>223.477708</v>
+        <v>223.47770800000001</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="5"/>
         <v>2.4721968018394</v>
       </c>
       <c r="P28" s="1">
-        <v>53.671083</v>
+        <v>53.671083000000003</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="6"/>
-        <v>10.2938275905482</v>
+        <v>10.293827590548201</v>
       </c>
       <c r="R28" s="1">
         <f t="shared" si="7"/>
@@ -2728,12 +4780,16 @@
       </c>
       <c r="S28" s="2">
         <f t="shared" si="8"/>
-        <v>5.17929376417787</v>
+        <v>5.1792937641778698</v>
+      </c>
+      <c r="T28" s="2">
+        <f t="shared" si="9"/>
+        <v>0.2401630278040976</v>
       </c>
     </row>
-    <row r="29" spans="2:19">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1">
         <v>1096</v>
@@ -2743,288 +4799,304 @@
         <v>1146.914</v>
       </c>
       <c r="F29" s="1">
-        <v>514.3733</v>
+        <v>419.44670000000002</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="0"/>
-        <v>2.22973082000951</v>
-      </c>
-      <c r="H29" s="4">
-        <v>248.3877</v>
+        <v>2.7343497993904826</v>
+      </c>
+      <c r="H29" s="1">
+        <v>170.62549999999999</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="1"/>
-        <v>4.61743476025584</v>
-      </c>
-      <c r="J29" s="4">
+        <v>6.7218205953975234</v>
+      </c>
+      <c r="J29" s="1">
         <f t="shared" si="2"/>
-        <v>301.3877</v>
+        <v>223.62549999999999</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="3"/>
-        <v>3.80544395142867</v>
+        <v>5.1287263751226941</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="4"/>
-        <v>0.482893843828986</v>
+        <v>0.40678708403236924</v>
       </c>
       <c r="M29" s="1">
         <f>1000*1.118762709</f>
-        <v>1118.762709</v>
+        <v>1118.7627090000001</v>
       </c>
       <c r="N29" s="1">
-        <v>393.292375</v>
+        <v>393.29237499999999</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="5"/>
-        <v>2.84460818494129</v>
+        <v>2.8446081849412899</v>
       </c>
       <c r="P29" s="1">
-        <v>132.366708</v>
+        <v>132.36670799999999</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="6"/>
-        <v>8.45199465865692</v>
+        <v>8.4519946586569201</v>
       </c>
       <c r="R29" s="1">
         <f t="shared" si="7"/>
-        <v>185.366708</v>
+        <v>185.36670799999999</v>
       </c>
       <c r="S29" s="2">
         <f t="shared" si="8"/>
-        <v>6.03540258696292</v>
+        <v>6.0354025869629204</v>
+      </c>
+      <c r="T29" s="2">
+        <f t="shared" si="9"/>
+        <v>0.33656057532262096</v>
       </c>
     </row>
-    <row r="30" spans="2:19">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C30" s="1">
         <v>1645</v>
       </c>
       <c r="E30" s="1">
         <f>1000*2.0534615</f>
-        <v>2053.4615</v>
+        <v>2053.4614999999999</v>
       </c>
       <c r="F30" s="1">
-        <v>961.7196</v>
+        <v>803.64790000000005</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="0"/>
-        <v>2.13519772291217</v>
-      </c>
-      <c r="H30" s="4">
-        <v>567.7422</v>
+        <v>2.5551755936897238</v>
+      </c>
+      <c r="H30" s="1">
+        <v>400.91460000000001</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="1"/>
-        <v>3.61689072963046</v>
-      </c>
-      <c r="J30" s="4">
+        <v>5.1219424286369213</v>
+      </c>
+      <c r="J30" s="1">
         <f t="shared" si="2"/>
-        <v>620.7422</v>
+        <v>453.91460000000001</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="3"/>
-        <v>3.30807459199648</v>
+        <v>4.5238939218963212</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="4"/>
-        <v>0.590340677261855</v>
+        <v>0.49886847212566593</v>
       </c>
       <c r="M30" s="1">
         <f>1000*2.035345458</f>
         <v>2035.345458</v>
       </c>
       <c r="N30" s="1">
-        <v>724.847459</v>
+        <v>724.84745899999996</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="5"/>
-        <v>2.80796384498328</v>
+        <v>2.8079638449832802</v>
       </c>
       <c r="P30" s="1">
-        <v>321.785625</v>
+        <v>321.78562499999998</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="6"/>
-        <v>6.32515967113198</v>
+        <v>6.3251596711319804</v>
       </c>
       <c r="R30" s="1">
         <f t="shared" si="7"/>
-        <v>374.785625</v>
+        <v>374.78562499999998</v>
       </c>
       <c r="S30" s="2">
         <f t="shared" si="8"/>
         <v>5.43069243384135</v>
       </c>
+      <c r="T30" s="2">
+        <f t="shared" si="9"/>
+        <v>0.4439356460515646</v>
+      </c>
     </row>
-    <row r="31" spans="2:19">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C31" s="1">
         <v>1280</v>
       </c>
       <c r="E31" s="1">
         <f>1000*1.7090621</f>
-        <v>1709.0621</v>
+        <v>1709.0621000000001</v>
       </c>
       <c r="F31" s="1">
-        <v>778.3204</v>
+        <v>631.48490000000004</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="0"/>
-        <v>2.19583361813464</v>
-      </c>
-      <c r="H31" s="4">
-        <v>443.6597</v>
+        <v>2.7064179998603293</v>
+      </c>
+      <c r="H31" s="1">
+        <v>303.3168</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="1"/>
-        <v>3.85219144312634</v>
-      </c>
-      <c r="J31" s="4">
+        <v>5.6345777747886041</v>
+      </c>
+      <c r="J31" s="1">
         <f t="shared" si="2"/>
-        <v>496.6597</v>
+        <v>356.3168</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="3"/>
-        <v>3.44111289883194</v>
+        <v>4.7964679184366279</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="4"/>
-        <v>0.570021934411587</v>
+        <v>0.48032312411587352</v>
       </c>
       <c r="M31" s="1">
         <f>1000*1.656551125</f>
         <v>1656.551125</v>
       </c>
       <c r="N31" s="1">
-        <v>589.756375</v>
+        <v>589.75637500000005</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>2.8088736217561</v>
+        <v>2.8088736217561001</v>
       </c>
       <c r="P31" s="1">
-        <v>238.221708</v>
+        <v>238.22170800000001</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="6"/>
-        <v>6.95382103884504</v>
+        <v>6.9538210388450397</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" si="7"/>
-        <v>291.221708</v>
+        <v>291.22170799999998</v>
       </c>
       <c r="S31" s="2">
         <f t="shared" si="8"/>
-        <v>5.68828174374968</v>
+        <v>5.6882817437496804</v>
+      </c>
+      <c r="T31" s="2">
+        <f t="shared" si="9"/>
+        <v>0.40393240005247927</v>
       </c>
     </row>
-    <row r="32" spans="2:19">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1">
         <v>1994</v>
       </c>
       <c r="E32" s="1">
         <f>1000*1.3161689</f>
-        <v>1316.1689</v>
+        <v>1316.1688999999999</v>
       </c>
       <c r="F32" s="1">
-        <v>597.7423</v>
+        <v>480.94900000000001</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="0"/>
-        <v>2.20190021686603</v>
-      </c>
-      <c r="H32" s="4">
-        <v>322.823</v>
+        <v>2.7366080395218617</v>
+      </c>
+      <c r="H32" s="1">
+        <v>213.2747</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="1"/>
-        <v>4.07706049445052</v>
-      </c>
-      <c r="J32" s="4">
+        <v>6.1712378449014347</v>
+      </c>
+      <c r="J32" s="1">
         <f t="shared" si="2"/>
-        <v>375.823</v>
+        <v>266.2747</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="3"/>
-        <v>3.50209779603696</v>
+        <v>4.9428988184006961</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="4"/>
-        <v>0.540070528721156</v>
+        <v>0.44344556283514464</v>
       </c>
       <c r="M32" s="1">
         <f>1000*1.279313209</f>
-        <v>1279.313209</v>
+        <v>1279.3132089999999</v>
       </c>
       <c r="N32" s="1">
-        <v>452.944875</v>
+        <v>452.94487500000002</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="5"/>
-        <v>2.82443467099611</v>
+        <v>2.8244346709961099</v>
       </c>
       <c r="P32" s="1">
-        <v>165.60175</v>
+        <v>165.60175000000001</v>
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="6"/>
-        <v>7.72523967288993</v>
+        <v>7.7252396728899297</v>
       </c>
       <c r="R32" s="1">
         <f t="shared" si="7"/>
-        <v>218.60175</v>
+        <v>218.60175000000001</v>
       </c>
       <c r="S32" s="2">
         <f t="shared" si="8"/>
-        <v>5.85225511232184</v>
+        <v>5.8522551123218403</v>
+      </c>
+      <c r="T32" s="2">
+        <f t="shared" si="9"/>
+        <v>0.36561126781708259</v>
       </c>
     </row>
-    <row r="33" spans="2:19">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C33" s="1">
         <v>231</v>
       </c>
       <c r="E33" s="1">
-        <v>463.8069</v>
+        <v>463.80689999999998</v>
       </c>
       <c r="F33" s="1">
-        <v>169.2998</v>
+        <v>160.6679</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="0"/>
-        <v>2.73955964507932</v>
-      </c>
-      <c r="H33" s="4">
-        <v>62.3942</v>
+        <v>2.8867427781156034</v>
+      </c>
+      <c r="H33" s="1">
+        <v>42.610399999999998</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="1"/>
-        <v>7.43349381833568</v>
-      </c>
-      <c r="J33" s="4">
+        <v>10.884828586448378</v>
+      </c>
+      <c r="J33" s="1">
         <f t="shared" si="2"/>
-        <v>115.3942</v>
+        <v>95.610399999999998</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="3"/>
-        <v>4.01932592799291</v>
+        <v>4.8510088860626039</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="4"/>
-        <v>0.368542668095296</v>
+        <v>0.26520792267777193</v>
       </c>
       <c r="M33" s="1">
-        <v>455.487125</v>
+        <v>455.48712499999999</v>
       </c>
       <c r="N33" s="1">
         <v>154.875584</v>
@@ -3034,24 +5106,28 @@
         <v>2.94098729597042</v>
       </c>
       <c r="P33" s="1">
-        <v>31.8285</v>
+        <v>31.828499999999998</v>
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="6"/>
-        <v>14.3106688973719</v>
+        <v>14.310668897371899</v>
       </c>
       <c r="R33" s="1">
         <f t="shared" si="7"/>
-        <v>84.8285</v>
+        <v>84.828500000000005</v>
       </c>
       <c r="S33" s="2">
         <f t="shared" si="8"/>
         <v>5.36950582646163</v>
       </c>
+      <c r="T33" s="2">
+        <f t="shared" si="9"/>
+        <v>0.20551012094972954</v>
+      </c>
     </row>
-    <row r="34" spans="2:19">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C34" s="1">
         <v>963</v>
@@ -3061,44 +5137,44 @@
         <v>1901.5851</v>
       </c>
       <c r="F34" s="1">
-        <v>492.5778</v>
+        <v>393.94639999999998</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="0"/>
-        <v>3.86047665972766</v>
-      </c>
-      <c r="H34" s="4">
-        <v>260.8302</v>
+        <v>4.8270147918600097</v>
+      </c>
+      <c r="H34" s="1">
+        <v>177.11709999999999</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="1"/>
-        <v>7.29050968791191</v>
-      </c>
-      <c r="J34" s="4">
+        <v>10.736315691709045</v>
+      </c>
+      <c r="J34" s="1">
         <f t="shared" si="2"/>
-        <v>313.8302</v>
+        <v>230.11709999999999</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="3"/>
-        <v>6.05928014576035</v>
+        <v>8.263554077467516</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="4"/>
-        <v>0.529520818843237</v>
+        <v>0.44959695024500795</v>
       </c>
       <c r="M34" s="1">
         <f>1000*1.912856833</f>
-        <v>1912.856833</v>
+        <v>1912.8568330000001</v>
       </c>
       <c r="N34" s="1">
-        <v>379.027375</v>
+        <v>379.02737500000001</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="5"/>
-        <v>5.04675112978317</v>
+        <v>5.0467511297831704</v>
       </c>
       <c r="P34" s="1">
-        <v>133.454458</v>
+        <v>133.45445799999999</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="6"/>
@@ -3106,49 +5182,53 @@
       </c>
       <c r="R34" s="1">
         <f t="shared" si="7"/>
-        <v>186.454458</v>
+        <v>186.45445799999999</v>
       </c>
       <c r="S34" s="2">
         <f t="shared" si="8"/>
-        <v>10.259110205882</v>
+        <v>10.259110205881999</v>
+      </c>
+      <c r="T34" s="2">
+        <f t="shared" si="9"/>
+        <v>0.35209714865581937</v>
       </c>
     </row>
-    <row r="35" spans="2:19">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1">
         <v>1924</v>
       </c>
       <c r="E35" s="1">
         <f>4.002594*1000</f>
-        <v>4002.594</v>
+        <v>4002.5940000000001</v>
       </c>
       <c r="F35" s="1">
-        <v>910.863</v>
+        <v>745.12339999999995</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="0"/>
-        <v>4.39428761515178</v>
-      </c>
-      <c r="H35" s="4">
-        <v>537.321</v>
+        <v>5.3717196373110818</v>
+      </c>
+      <c r="H35" s="1">
+        <v>373.62889999999999</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="1"/>
-        <v>7.44916725756112</v>
-      </c>
-      <c r="J35" s="4">
+        <v>10.712752680534081</v>
+      </c>
+      <c r="J35" s="1">
         <f t="shared" si="2"/>
-        <v>590.321</v>
+        <v>426.62889999999999</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="3"/>
-        <v>6.78036864688873</v>
+        <v>9.3819101331391295</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="4"/>
-        <v>0.589903201688948</v>
+        <v>0.50143224598771163</v>
       </c>
       <c r="M35" s="1">
         <f>1000*3.698726541</f>
@@ -3158,27 +5238,124 @@
         <v>681.472666</v>
       </c>
       <c r="O35" s="2">
-        <f>H35/N35</f>
-        <v>0.78847036250754</v>
+        <f>M35/N35</f>
+        <v>5.4275493729047088</v>
       </c>
       <c r="P35" s="1">
-        <v>284.7245</v>
+        <v>284.72449999999998</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="6"/>
-        <v>12.9905453903686</v>
+        <v>12.990545390368601</v>
       </c>
       <c r="R35" s="1">
         <f t="shared" si="7"/>
-        <v>337.7245</v>
+        <v>337.72449999999998</v>
       </c>
       <c r="S35" s="2">
         <f t="shared" si="8"/>
         <v>10.9519047063509</v>
       </c>
+      <c r="T35" s="2">
+        <f t="shared" si="9"/>
+        <v>0.41780766009476306</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="G37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="G38" s="1">
+        <f>SUM(G6:G15)/10</f>
+        <v>0.52011675674092062</v>
+      </c>
+      <c r="I38" s="1">
+        <f>SUM(I6:I15)/10</f>
+        <v>12.085143727505731</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1">
+        <f t="shared" ref="J38:K38" si="10">SUM(K6:K15)/10</f>
+        <v>0.66463416200994652</v>
+      </c>
+      <c r="O38" s="1">
+        <f>SUM(O6:O15)/10</f>
+        <v>0.3641943592273999</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" ref="P38:S38" si="11">SUM(Q6:Q15)/10</f>
+        <v>18.380973339114711</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="11"/>
+        <v>0.55484812627390223</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="G39" s="1">
+        <f>SUM(G16:G25)/10</f>
+        <v>1.2730186756346058</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" ref="H39:K39" si="12">SUM(I16:I25)/10</f>
+        <v>11.82853482989559</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1">
+        <f t="shared" si="12"/>
+        <v>1.8935545984044944</v>
+      </c>
+      <c r="O39" s="1">
+        <f>SUM(O16:O25)/10</f>
+        <v>1.0447606327550747</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" ref="P39:S39" si="13">SUM(Q16:Q25)/10</f>
+        <v>14.79588507153772</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="13"/>
+        <v>1.7677464443212649</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="1">
+        <f>SUM(G26:G35)/10</f>
+        <v>3.0385065414285779</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" ref="H40:K40" si="14">SUM(I26:I35)/10</f>
+        <v>8.2722379744556473</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1">
+        <f t="shared" si="14"/>
+        <v>5.3583898429712251</v>
+      </c>
+      <c r="O40" s="1">
+        <f>SUM(O26:O35)/10</f>
+        <v>3.1007142171271029</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" ref="P40:S40" si="15">SUM(Q26:Q35)/10</f>
+        <v>10.478640387242587</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="15"/>
+        <v>6.2250430257687244</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>